--- a/nezamestnanost_data.xlsx
+++ b/nezamestnanost_data.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adela\git_repos\engeto-powerbi-nezamestnanost\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DA1262-817E-4EF4-AF26-BBE0A8577C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="DATA" sheetId="1" r:id="rId4"/>
+    <sheet name="DATA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -147,24 +156,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="###,###,##0.0000"/>
     <numFmt numFmtId="165" formatCode="###,###,##0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -175,23 +185,36 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="11">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -203,14 +226,19 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -225,6 +253,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -239,6 +268,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -253,6 +283,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -267,6 +298,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -281,6 +313,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -295,70 +328,68 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
       <border>
-        <left style="medium">
+        <left style="thin">
           <color rgb="FF000000"/>
         </left>
-        <right style="thin">
+        <right style="medium">
           <color rgb="FF000000"/>
         </right>
         <top style="medium">
@@ -370,7 +401,6 @@
       </border>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -390,7 +420,6 @@
       </border>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -398,7 +427,83 @@
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
-        <right style="medium">
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
           <color rgb="FF000000"/>
         </right>
         <top style="medium">
@@ -410,15 +515,20 @@
       </border>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -608,31 +718,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.25"/>
-    <col customWidth="1" min="2" max="2" width="12.75"/>
-    <col customWidth="1" min="3" max="3" width="11.75"/>
-    <col customWidth="1" min="4" max="5" width="17.13"/>
-    <col customWidth="1" min="6" max="6" width="12.0"/>
-    <col customWidth="1" min="7" max="7" width="11.88"/>
-    <col customWidth="1" min="8" max="8" width="13.88"/>
-    <col customWidth="1" min="9" max="9" width="16.0"/>
-    <col customWidth="1" min="10" max="23" width="8.63"/>
+    <col min="1" max="1" width="8.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="23" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.75" customHeight="1">
+    <row r="1" spans="1:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,70 +773,70 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="12.0" customHeight="1">
+    <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="7">
-        <v>8832.092157875</v>
+        <v>8832.0921578750003</v>
       </c>
       <c r="C2" s="7">
-        <v>5291.121131625</v>
+        <v>5291.1211316250001</v>
       </c>
       <c r="D2" s="7">
-        <v>5173.4809151</v>
+        <v>5173.4809150999999</v>
       </c>
       <c r="E2" s="7">
         <v>117.640216525</v>
       </c>
       <c r="F2" s="7">
-        <v>3540.97102625</v>
+        <v>3540.9710262499998</v>
       </c>
       <c r="G2" s="8">
-        <v>0.599</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="H2" s="8">
-        <v>0.586</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="I2" s="9">
-        <v>0.022000000000000002</v>
-      </c>
-    </row>
-    <row r="3" ht="12.0" customHeight="1">
+        <v>2.2000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="7">
-        <v>8974.560092075</v>
+        <v>8974.5600920750003</v>
       </c>
       <c r="C3" s="7">
-        <v>5363.8555012</v>
+        <v>5363.8555011999997</v>
       </c>
       <c r="D3" s="7">
-        <v>5213.368902525</v>
+        <v>5213.3689025249996</v>
       </c>
       <c r="E3" s="7">
-        <v>150.486598675</v>
+        <v>150.48659867500001</v>
       </c>
       <c r="F3" s="7">
-        <v>3610.704590875</v>
+        <v>3610.7045908750001</v>
       </c>
       <c r="G3" s="8">
-        <v>0.597673361833</v>
+        <v>0.59767336183300002</v>
       </c>
       <c r="H3" s="8">
-        <v>0.580905230901</v>
+        <v>0.58090523090099999</v>
       </c>
       <c r="I3" s="9">
-        <v>0.028055677235</v>
-      </c>
-    </row>
-    <row r="4" ht="12.0" customHeight="1">
+        <v>2.8055677235E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="7">
-        <v>8985.8391546</v>
+        <v>8985.8391546000003</v>
       </c>
       <c r="C4" s="7">
         <v>5371.95006225</v>
@@ -733,544 +845,544 @@
         <v>5234.9373771</v>
       </c>
       <c r="E4" s="7">
-        <v>137.01268515</v>
+        <v>137.01268515000001</v>
       </c>
       <c r="F4" s="7">
-        <v>3613.88909235</v>
+        <v>3613.8890923499998</v>
       </c>
       <c r="G4" s="8">
-        <v>0.597823972789</v>
+        <v>0.59782397278900001</v>
       </c>
       <c r="H4" s="8">
-        <v>0.5825763500810001</v>
+        <v>0.58257635008100006</v>
       </c>
       <c r="I4" s="9">
-        <v>0.025505204546</v>
-      </c>
-    </row>
-    <row r="5" ht="12.0" customHeight="1">
+        <v>2.5505204545999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="7">
-        <v>8963.465910875</v>
+        <v>8963.4659108750002</v>
       </c>
       <c r="C5" s="7">
         <v>5412.1700289</v>
       </c>
       <c r="D5" s="7">
-        <v>5303.096309425</v>
+        <v>5303.0963094250001</v>
       </c>
       <c r="E5" s="7">
         <v>109.073719475</v>
       </c>
       <c r="F5" s="7">
-        <v>3551.295881975</v>
+        <v>3551.2958819750002</v>
       </c>
       <c r="G5" s="8">
-        <v>0.603837357605</v>
+        <v>0.60383735760500001</v>
       </c>
       <c r="H5" s="8">
-        <v>0.591667971536</v>
+        <v>0.59166797153600004</v>
       </c>
       <c r="I5" s="9">
-        <v>0.020153417001</v>
-      </c>
-    </row>
-    <row r="6" ht="12.0" customHeight="1">
+        <v>2.0153417000999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7">
-        <v>8941.819402525</v>
+        <v>8941.8194025249995</v>
       </c>
       <c r="C6" s="7">
-        <v>5415.411027375</v>
+        <v>5415.4110273750002</v>
       </c>
       <c r="D6" s="7">
-        <v>5293.7887506</v>
+        <v>5293.7887505999997</v>
       </c>
       <c r="E6" s="7">
         <v>121.622276775</v>
       </c>
       <c r="F6" s="7">
-        <v>3526.40837515</v>
+        <v>3526.4083751500002</v>
       </c>
       <c r="G6" s="8">
-        <v>0.6056274213999999</v>
+        <v>0.60562742139999992</v>
       </c>
       <c r="H6" s="8">
-        <v>0.592025907961</v>
+        <v>0.59202590796099996</v>
       </c>
       <c r="I6" s="9">
-        <v>0.022458549528</v>
-      </c>
-    </row>
-    <row r="7" ht="12.0" customHeight="1">
+        <v>2.2458549527999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="7">
-        <v>8929.154218175</v>
+        <v>8929.1542181749992</v>
       </c>
       <c r="C7" s="7">
         <v>5377.140073775</v>
       </c>
       <c r="D7" s="7">
-        <v>5221.604795425</v>
+        <v>5221.6047954249998</v>
       </c>
       <c r="E7" s="7">
         <v>155.53527835</v>
       </c>
       <c r="F7" s="7">
-        <v>3552.0141444</v>
+        <v>3552.0141444000001</v>
       </c>
       <c r="G7" s="8">
-        <v>0.602200381177</v>
+        <v>0.60220038117700003</v>
       </c>
       <c r="H7" s="8">
-        <v>0.58478156697</v>
+        <v>0.58478156697000006</v>
       </c>
       <c r="I7" s="9">
-        <v>0.028925279277999996</v>
-      </c>
-    </row>
-    <row r="8" ht="12.0" customHeight="1">
+        <v>2.8925279277999996E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="7">
-        <v>8928.693204225</v>
+        <v>8928.6932042249991</v>
       </c>
       <c r="C8" s="7">
-        <v>5350.022734725</v>
+        <v>5350.0227347250002</v>
       </c>
       <c r="D8" s="7">
-        <v>5138.577945525</v>
+        <v>5138.5779455250004</v>
       </c>
       <c r="E8" s="7">
         <v>211.4447892</v>
       </c>
       <c r="F8" s="7">
-        <v>3578.6704695</v>
+        <v>3578.6704694999999</v>
       </c>
       <c r="G8" s="8">
-        <v>0.599194241531</v>
+        <v>0.59919424153099998</v>
       </c>
       <c r="H8" s="8">
-        <v>0.57551266405</v>
+        <v>0.57551266405000001</v>
       </c>
       <c r="I8" s="9">
-        <v>0.039533189184</v>
-      </c>
-    </row>
-    <row r="9" ht="12.0" customHeight="1">
+        <v>3.9533189183999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="7">
-        <v>8935.662001725</v>
+        <v>8935.6620017250007</v>
       </c>
       <c r="C9" s="7">
-        <v>5309.949937375</v>
+        <v>5309.9499373750004</v>
       </c>
       <c r="D9" s="7">
         <v>5041.9025892225</v>
       </c>
       <c r="E9" s="7">
-        <v>268.0473481525</v>
+        <v>268.04734815249998</v>
       </c>
       <c r="F9" s="7">
-        <v>3625.71206435</v>
+        <v>3625.7120643500002</v>
       </c>
       <c r="G9" s="8">
-        <v>0.594242478772</v>
+        <v>0.59424247877199998</v>
       </c>
       <c r="H9" s="8">
-        <v>0.564244998104</v>
+        <v>0.56424499810399997</v>
       </c>
       <c r="I9" s="9">
-        <v>0.050480202509</v>
-      </c>
-    </row>
-    <row r="10" ht="12.0" customHeight="1">
+        <v>5.0480202508999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="7">
-        <v>8932.591499735</v>
+        <v>8932.5914997349992</v>
       </c>
       <c r="C10" s="7">
-        <v>5297.8852429375</v>
+        <v>5297.8852429375002</v>
       </c>
       <c r="D10" s="7">
-        <v>4974.2949243675</v>
+        <v>4974.2949243675002</v>
       </c>
       <c r="E10" s="7">
-        <v>323.59031857</v>
+        <v>323.59031857000002</v>
       </c>
       <c r="F10" s="7">
-        <v>3634.7062567975</v>
+        <v>3634.7062567974999</v>
       </c>
       <c r="G10" s="8">
-        <v>0.593096106891</v>
+        <v>0.59309610689100001</v>
       </c>
       <c r="H10" s="8">
-        <v>0.556870301806</v>
+        <v>0.55687030180599995</v>
       </c>
       <c r="I10" s="9">
-        <v>0.061079148326</v>
-      </c>
-    </row>
-    <row r="11" ht="12.0" customHeight="1">
+        <v>6.1079148325999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="7">
-        <v>8951.4692519975</v>
+        <v>8951.4692519974997</v>
       </c>
       <c r="C11" s="7">
-        <v>5306.0224044875</v>
+        <v>5306.0224044875004</v>
       </c>
       <c r="D11" s="7">
-        <v>4937.0837664125</v>
+        <v>4937.0837664125002</v>
       </c>
       <c r="E11" s="7">
-        <v>368.938638075</v>
+        <v>368.93863807499997</v>
       </c>
       <c r="F11" s="7">
-        <v>3645.44684751</v>
+        <v>3645.4468475100002</v>
       </c>
       <c r="G11" s="8">
-        <v>0.592754357426</v>
+        <v>0.59275435742600002</v>
       </c>
       <c r="H11" s="8">
-        <v>0.551538929245</v>
+        <v>0.55153892924500003</v>
       </c>
       <c r="I11" s="9">
-        <v>0.069532054324</v>
-      </c>
-    </row>
-    <row r="12" ht="12.0" customHeight="1">
+        <v>6.9532054324000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="7">
-        <v>8964.5935004375</v>
+        <v>8964.5935004375006</v>
       </c>
       <c r="C12" s="7">
-        <v>5256.947639245</v>
+        <v>5256.9476392449997</v>
       </c>
       <c r="D12" s="7">
-        <v>4890.0533046025</v>
+        <v>4890.0533046025002</v>
       </c>
       <c r="E12" s="7">
-        <v>366.8943346425</v>
+        <v>366.89433464249998</v>
       </c>
       <c r="F12" s="7">
         <v>3707.6458611925</v>
       </c>
       <c r="G12" s="8">
-        <v>0.586412271676</v>
+        <v>0.58641227167599996</v>
       </c>
       <c r="H12" s="8">
-        <v>0.545485225221</v>
+        <v>0.54548522522099996</v>
       </c>
       <c r="I12" s="9">
-        <v>0.069792274875</v>
-      </c>
-    </row>
-    <row r="13" ht="12.0" customHeight="1">
+        <v>6.9792274875000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="7">
-        <v>8964.710999965</v>
+        <v>8964.7109999650002</v>
       </c>
       <c r="C13" s="7">
-        <v>5222.9704184525</v>
+        <v>5222.9704184524999</v>
       </c>
       <c r="D13" s="7">
-        <v>4872.406288355</v>
+        <v>4872.4062883549996</v>
       </c>
       <c r="E13" s="7">
-        <v>350.5641300975</v>
+        <v>350.56413009750003</v>
       </c>
       <c r="F13" s="7">
-        <v>3741.7405815125</v>
+        <v>3741.7405815124998</v>
       </c>
       <c r="G13" s="8">
-        <v>0.583279357014</v>
+        <v>0.58327935701400002</v>
       </c>
       <c r="H13" s="8">
-        <v>0.54405150228</v>
+        <v>0.54405150227999999</v>
       </c>
       <c r="I13" s="9">
-        <v>0.06725397404</v>
-      </c>
-    </row>
-    <row r="14" ht="12.0" customHeight="1">
+        <v>6.7253974039999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="7">
-        <v>9015.4024815935</v>
+        <v>9015.4024815935009</v>
       </c>
       <c r="C14" s="7">
-        <v>5268.8895985774</v>
+        <v>5268.8895985773997</v>
       </c>
       <c r="D14" s="7">
-        <v>4885.23938857</v>
+        <v>4885.2393885700003</v>
       </c>
       <c r="E14" s="7">
-        <v>383.6502100074</v>
+        <v>383.65021000740001</v>
       </c>
       <c r="F14" s="7">
-        <v>3746.5128830161</v>
+        <v>3746.5128830161002</v>
       </c>
       <c r="G14" s="8">
-        <v>0.584431988404</v>
+        <v>0.58443198840400001</v>
       </c>
       <c r="H14" s="8">
-        <v>0.541877015313</v>
+        <v>0.54187701531300003</v>
       </c>
       <c r="I14" s="9">
-        <v>0.072814243462</v>
-      </c>
-    </row>
-    <row r="15" ht="12.0" customHeight="1">
+        <v>7.2814243461999995E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="7">
-        <v>9009.3489811366</v>
+        <v>9009.3489811365998</v>
       </c>
       <c r="C15" s="7">
-        <v>5286.4577128798</v>
+        <v>5286.4577128798001</v>
       </c>
       <c r="D15" s="7">
-        <v>4934.2680213131</v>
+        <v>4934.2680213130998</v>
       </c>
       <c r="E15" s="7">
         <v>352.1896915666</v>
       </c>
       <c r="F15" s="7">
-        <v>3722.891268257</v>
+        <v>3722.8912682569999</v>
       </c>
       <c r="G15" s="8">
-        <v>0.5867746630690001</v>
+        <v>0.58677466306900006</v>
       </c>
       <c r="H15" s="8">
-        <v>0.5476858819720001</v>
+        <v>0.54768588197200008</v>
       </c>
       <c r="I15" s="9">
-        <v>0.066621112037</v>
-      </c>
-    </row>
-    <row r="16" ht="12.0" customHeight="1">
+        <v>6.6621112036999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="7">
-        <v>8943.7714811528</v>
+        <v>8943.7714811528003</v>
       </c>
       <c r="C16" s="7">
-        <v>5232.3294063029</v>
+        <v>5232.3294063028998</v>
       </c>
       <c r="D16" s="7">
-        <v>5002.4972527105</v>
+        <v>5002.4972527105001</v>
       </c>
       <c r="E16" s="7">
         <v>229.8321535924</v>
       </c>
       <c r="F16" s="7">
-        <v>3711.44207485</v>
+        <v>3711.4420748500002</v>
       </c>
       <c r="G16" s="8">
-        <v>0.585024943597</v>
+        <v>0.58502494359699997</v>
       </c>
       <c r="H16" s="8">
-        <v>0.559323709024</v>
+        <v>0.55932370902399997</v>
       </c>
       <c r="I16" s="9">
-        <v>0.043925398373</v>
-      </c>
-    </row>
-    <row r="17" ht="12.0" customHeight="1">
+        <v>4.3925398373000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="7">
-        <v>8845.0484807089</v>
+        <v>8845.0484807088997</v>
       </c>
       <c r="C17" s="7">
         <v>5198.3262692146</v>
       </c>
       <c r="D17" s="7">
-        <v>4921.9927123012</v>
+        <v>4921.9927123012003</v>
       </c>
       <c r="E17" s="7">
-        <v>276.3335569133</v>
+        <v>276.33355691330001</v>
       </c>
       <c r="F17" s="7">
-        <v>3646.7222114944</v>
+        <v>3646.7222114944002</v>
       </c>
       <c r="G17" s="8">
-        <v>0.58771031957</v>
+        <v>0.58771031956999997</v>
       </c>
       <c r="H17" s="8">
-        <v>0.5564613261920001</v>
+        <v>0.55646132619200006</v>
       </c>
       <c r="I17" s="9">
-        <v>0.053158178730000005</v>
-      </c>
-    </row>
-    <row r="18" ht="12.0" customHeight="1">
+        <v>5.3158178730000005E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="7">
-        <v>8773.3937309194</v>
+        <v>8773.3937309194007</v>
       </c>
       <c r="C18" s="7">
-        <v>5199.3583793676</v>
+        <v>5199.3583793675998</v>
       </c>
       <c r="D18" s="7">
-        <v>4828.064952154</v>
+        <v>4828.0649521539999</v>
       </c>
       <c r="E18" s="7">
-        <v>371.2934272135</v>
+        <v>371.29342721350002</v>
       </c>
       <c r="F18" s="7">
-        <v>3574.035351552</v>
+        <v>3574.0353515520001</v>
       </c>
       <c r="G18" s="8">
-        <v>0.5926279543390001</v>
+        <v>0.59262795433900006</v>
       </c>
       <c r="H18" s="8">
-        <v>0.55030391943</v>
+        <v>0.55030391943000001</v>
       </c>
       <c r="I18" s="9">
-        <v>0.071411393507</v>
-      </c>
-    </row>
-    <row r="19" ht="12.0" customHeight="1">
+        <v>7.1411393507000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="7">
-        <v>8715.9904811085</v>
+        <v>8715.9904811084998</v>
       </c>
       <c r="C19" s="7">
-        <v>5174.1696771165</v>
+        <v>5174.1696771164998</v>
       </c>
       <c r="D19" s="7">
-        <v>4764.015788919</v>
+        <v>4764.0157889190004</v>
       </c>
       <c r="E19" s="7">
-        <v>410.1538881973</v>
+        <v>410.15388819729998</v>
       </c>
       <c r="F19" s="7">
-        <v>3541.8208039922</v>
+        <v>3541.8208039922001</v>
       </c>
       <c r="G19" s="8">
-        <v>0.5936410426709999</v>
+        <v>0.59364104267099993</v>
       </c>
       <c r="H19" s="8">
-        <v>0.546576525717</v>
+        <v>0.54657652571699999</v>
       </c>
       <c r="I19" s="9">
-        <v>0.079269508693</v>
-      </c>
-    </row>
-    <row r="20" ht="12.0" customHeight="1">
+        <v>7.9269508692999993E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="7">
-        <v>8673.2914803523</v>
+        <v>8673.2914803522999</v>
       </c>
       <c r="C20" s="7">
-        <v>5132.5044220347</v>
+        <v>5132.5044220346999</v>
       </c>
       <c r="D20" s="7">
-        <v>4706.626983081</v>
+        <v>4706.6269830809997</v>
       </c>
       <c r="E20" s="7">
-        <v>425.8774389536</v>
+        <v>425.87743895360001</v>
       </c>
       <c r="F20" s="7">
         <v>3540.7870583177</v>
       </c>
       <c r="G20" s="8">
-        <v>0.5917597066420001</v>
+        <v>0.59175970664200006</v>
       </c>
       <c r="H20" s="8">
-        <v>0.542655584689</v>
+        <v>0.54265558468899999</v>
       </c>
       <c r="I20" s="9">
-        <v>0.082976536196</v>
-      </c>
-    </row>
-    <row r="21" ht="12.0" customHeight="1">
+        <v>8.2976536195999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="7">
-        <v>8636.9012306365</v>
+        <v>8636.9012306365003</v>
       </c>
       <c r="C21" s="7">
-        <v>5132.3291173571</v>
+        <v>5132.3291173570997</v>
       </c>
       <c r="D21" s="7">
-        <v>4733.1819765886</v>
+        <v>4733.1819765886003</v>
       </c>
       <c r="E21" s="7">
-        <v>399.1471407683</v>
+        <v>399.14714076830001</v>
       </c>
       <c r="F21" s="7">
-        <v>3504.5721132796</v>
+        <v>3504.5721132796002</v>
       </c>
       <c r="G21" s="8">
-        <v>0.59423269762</v>
+        <v>0.59423269761999997</v>
       </c>
       <c r="H21" s="8">
-        <v>0.548022109873</v>
+        <v>0.54802210987300004</v>
       </c>
       <c r="I21" s="9">
-        <v>0.07777115061</v>
-      </c>
-    </row>
-    <row r="22" ht="12.0" customHeight="1">
+        <v>7.7771150610000006E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="7">
-        <v>8599.1364617841</v>
+        <v>8599.1364617841009</v>
       </c>
       <c r="C22" s="7">
-        <v>5139.064253166</v>
+        <v>5139.0642531659996</v>
       </c>
       <c r="D22" s="7">
-        <v>4764.9147341668</v>
+        <v>4764.9147341668004</v>
       </c>
       <c r="E22" s="7">
-        <v>374.149518999</v>
+        <v>374.14951899900001</v>
       </c>
       <c r="F22" s="7">
-        <v>3460.0722086184</v>
+        <v>3460.0722086184001</v>
       </c>
       <c r="G22" s="8">
-        <v>0.59762561927</v>
+        <v>0.59762561927000002</v>
       </c>
       <c r="H22" s="8">
         <v>0.554113144226</v>
       </c>
       <c r="I22" s="9">
-        <v>0.072804989501</v>
-      </c>
-    </row>
-    <row r="23" ht="12.0" customHeight="1">
+        <v>7.2804989501000006E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>30</v>
       </c>
@@ -1278,213 +1390,213 @@
         <v>8577.3860082304</v>
       </c>
       <c r="C23" s="7">
-        <v>5145.9581201191</v>
+        <v>5145.9581201191004</v>
       </c>
       <c r="D23" s="7">
-        <v>4727.6924223626</v>
+        <v>4727.6924223626002</v>
       </c>
       <c r="E23" s="7">
-        <v>418.2656977564</v>
+        <v>418.26569775640002</v>
       </c>
       <c r="F23" s="7">
         <v>3431.4278881113</v>
       </c>
       <c r="G23" s="8">
-        <v>0.599944798471</v>
+        <v>0.59994479847100002</v>
       </c>
       <c r="H23" s="8">
-        <v>0.551180830945</v>
+        <v>0.55118083094500003</v>
       </c>
       <c r="I23" s="9">
-        <v>0.081280431747</v>
-      </c>
-    </row>
-    <row r="24" ht="12.0" customHeight="1">
+        <v>8.1280431747000004E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="7">
-        <v>8586.4402612764</v>
+        <v>8586.4402612764006</v>
       </c>
       <c r="C24" s="7">
-        <v>5186.1144509976</v>
+        <v>5186.1144509976002</v>
       </c>
       <c r="D24" s="7">
         <v>4731.6029506092</v>
       </c>
       <c r="E24" s="7">
-        <v>454.5115003884</v>
+        <v>454.51150038840001</v>
       </c>
       <c r="F24" s="7">
         <v>3400.3258102788</v>
       </c>
       <c r="G24" s="8">
-        <v>0.603988881677</v>
+        <v>0.60398888167700004</v>
       </c>
       <c r="H24" s="8">
-        <v>0.551053867592</v>
+        <v>0.55105386759200004</v>
       </c>
       <c r="I24" s="9">
-        <v>0.087640082895</v>
-      </c>
-    </row>
-    <row r="25" ht="12.0" customHeight="1">
+        <v>8.7640082894999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="7">
-        <v>8555.278525875</v>
+        <v>8555.2785258749991</v>
       </c>
       <c r="C25" s="7">
-        <v>5218.208064</v>
+        <v>5218.2080640000004</v>
       </c>
       <c r="D25" s="7">
-        <v>4764.099031025</v>
+        <v>4764.0990310249999</v>
       </c>
       <c r="E25" s="7">
-        <v>454.109032975</v>
+        <v>454.10903297499999</v>
       </c>
       <c r="F25" s="7">
-        <v>3337.070461875</v>
+        <v>3337.0704618750001</v>
       </c>
       <c r="G25" s="8">
-        <v>0.609940172984</v>
+        <v>0.60994017298400005</v>
       </c>
       <c r="H25" s="8">
-        <v>0.556861805237</v>
+        <v>0.55686180523700002</v>
       </c>
       <c r="I25" s="9">
-        <v>0.08702394143799999</v>
-      </c>
-    </row>
-    <row r="26" ht="12.0" customHeight="1">
+        <v>8.7023941437999991E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="7">
-        <v>8523.22105035</v>
+        <v>8523.2210503499991</v>
       </c>
       <c r="C26" s="7">
-        <v>5201.46441035</v>
+        <v>5201.4644103500004</v>
       </c>
       <c r="D26" s="7">
-        <v>4865.736663425</v>
+        <v>4865.7366634250002</v>
       </c>
       <c r="E26" s="7">
-        <v>335.727746925</v>
+        <v>335.72774692500002</v>
       </c>
       <c r="F26" s="7">
-        <v>3321.75664</v>
+        <v>3321.7566400000001</v>
       </c>
       <c r="G26" s="8">
-        <v>0.6102698005389999</v>
+        <v>0.61026980053899993</v>
       </c>
       <c r="H26" s="8">
         <v>0.570882531561</v>
       </c>
       <c r="I26" s="9">
-        <v>0.064544851303</v>
-      </c>
-    </row>
-    <row r="27" ht="12.0" customHeight="1">
+        <v>6.4544851303E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="7">
-        <v>8487.004423425</v>
+        <v>8487.0044234249999</v>
       </c>
       <c r="C27" s="7">
-        <v>5184.8359945749</v>
+        <v>5184.8359945748998</v>
       </c>
       <c r="D27" s="7">
-        <v>4936.52549405</v>
+        <v>4936.5254940499999</v>
       </c>
       <c r="E27" s="7">
-        <v>248.310500525</v>
+        <v>248.31050052500001</v>
       </c>
       <c r="F27" s="7">
-        <v>3302.16842885</v>
+        <v>3302.1684288500001</v>
       </c>
       <c r="G27" s="8">
         <v>0.610914727494</v>
       </c>
       <c r="H27" s="8">
-        <v>0.581658993908</v>
+        <v>0.58165899390800002</v>
       </c>
       <c r="I27" s="9">
-        <v>0.047891678885</v>
-      </c>
-    </row>
-    <row r="28" ht="12.0" customHeight="1">
+        <v>4.7891678884999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="7">
-        <v>8447.533170225</v>
+        <v>8447.5331702250005</v>
       </c>
       <c r="C28" s="7">
-        <v>5173.4550529001</v>
+        <v>5173.4550529000999</v>
       </c>
       <c r="D28" s="7">
-        <v>4971.99141295</v>
+        <v>4971.9914129500003</v>
       </c>
       <c r="E28" s="7">
-        <v>201.46363995</v>
+        <v>201.46363994999999</v>
       </c>
       <c r="F28" s="7">
-        <v>3274.078117325</v>
+        <v>3274.0781173250002</v>
       </c>
       <c r="G28" s="8">
         <v>0.612421987419</v>
       </c>
       <c r="H28" s="8">
-        <v>0.588573534983</v>
+        <v>0.58857353498300002</v>
       </c>
       <c r="I28" s="9">
-        <v>0.038941797675</v>
-      </c>
-    </row>
-    <row r="29" ht="12.0" customHeight="1">
+        <v>3.8941797675000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="7">
-        <v>8406.44119455</v>
+        <v>8406.4411945499996</v>
       </c>
       <c r="C29" s="7">
-        <v>5170.6293037751</v>
+        <v>5170.6293037751002</v>
       </c>
       <c r="D29" s="7">
-        <v>4962.5780297749</v>
+        <v>4962.5780297748997</v>
       </c>
       <c r="E29" s="7">
-        <v>208.051274</v>
+        <v>208.05127400000001</v>
       </c>
       <c r="F29" s="7">
-        <v>3235.811890775</v>
+        <v>3235.8118907749999</v>
       </c>
       <c r="G29" s="8">
-        <v>0.615079459204</v>
+        <v>0.61507945920399998</v>
       </c>
       <c r="H29" s="8">
-        <v>0.59032748075</v>
+        <v>0.59032748074999997</v>
       </c>
       <c r="I29" s="9">
-        <v>0.040237128167</v>
-      </c>
-    </row>
-    <row r="30" ht="12.0" customHeight="1">
+        <v>4.0237128167000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="7">
-        <v>8354.61134045</v>
+        <v>8354.6113404499993</v>
       </c>
       <c r="C30" s="7">
-        <v>5147.9362257501</v>
+        <v>5147.9362257500998</v>
       </c>
       <c r="D30" s="7">
-        <v>4926.76648345</v>
+        <v>4926.7664834500001</v>
       </c>
       <c r="E30" s="7">
         <v>221.1697423</v>
@@ -1493,4912 +1605,4912 @@
         <v>3206.6751147</v>
       </c>
       <c r="G30" s="8">
-        <v>0.6161790197020001</v>
+        <v>0.61617901970200006</v>
       </c>
       <c r="H30" s="8">
-        <v>0.589706080326</v>
+        <v>0.58970608032600003</v>
       </c>
       <c r="I30" s="9">
-        <v>0.042962797634</v>
-      </c>
-    </row>
-    <row r="31" ht="12.0" customHeight="1">
+        <v>4.2962797634000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="11">
-        <v>8292.6829579</v>
+        <v>8292.6829579000005</v>
       </c>
       <c r="C31" s="11">
-        <v>5093.5657425999</v>
+        <v>5093.5657425998997</v>
       </c>
       <c r="D31" s="11">
-        <v>4873.54198795</v>
+        <v>4873.5419879499996</v>
       </c>
       <c r="E31" s="11">
         <v>220.02375465</v>
       </c>
       <c r="F31" s="11">
-        <v>3199.1172153</v>
+        <v>3199.1172153000002</v>
       </c>
       <c r="G31" s="12">
-        <v>0.614224101953</v>
+        <v>0.61422410195300003</v>
       </c>
       <c r="H31" s="12">
-        <v>0.587684091876</v>
+        <v>0.58768409187600001</v>
       </c>
       <c r="I31" s="13">
-        <v>0.043196410091999995</v>
-      </c>
-    </row>
-    <row r="32" ht="12.0" customHeight="1">
+        <v>4.3196410091999995E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" ht="12.0" customHeight="1">
+    <row r="33" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" ht="12.0" customHeight="1">
+    <row r="34" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" ht="12.0" customHeight="1">
+    <row r="35" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" ht="12.0" customHeight="1">
+    <row r="36" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" ht="12.0" customHeight="1">
+    <row r="37" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" ht="12.0" customHeight="1">
+    <row r="38" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
     </row>
-    <row r="39" ht="12.0" customHeight="1">
+    <row r="39" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
     </row>
-    <row r="40" ht="12.0" customHeight="1">
+    <row r="40" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" ht="12.0" customHeight="1">
+    <row r="41" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
     </row>
-    <row r="42" ht="12.0" customHeight="1">
+    <row r="42" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
     </row>
-    <row r="43" ht="12.0" customHeight="1">
+    <row r="43" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
     </row>
-    <row r="44" ht="12.0" customHeight="1">
+    <row r="44" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
     </row>
-    <row r="45" ht="12.0" customHeight="1">
+    <row r="45" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
     </row>
-    <row r="46" ht="12.0" customHeight="1">
+    <row r="46" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
     </row>
-    <row r="47" ht="12.0" customHeight="1">
+    <row r="47" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
     </row>
-    <row r="48" ht="12.0" customHeight="1">
+    <row r="48" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
     </row>
-    <row r="49" ht="12.0" customHeight="1">
+    <row r="49" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
     </row>
-    <row r="50" ht="12.0" customHeight="1">
+    <row r="50" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
     </row>
-    <row r="51" ht="12.0" customHeight="1">
+    <row r="51" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
     </row>
-    <row r="52" ht="12.0" customHeight="1">
+    <row r="52" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
     </row>
-    <row r="53" ht="12.0" customHeight="1">
+    <row r="53" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
     </row>
-    <row r="54" ht="12.0" customHeight="1">
+    <row r="54" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
     </row>
-    <row r="55" ht="12.0" customHeight="1">
+    <row r="55" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
     </row>
-    <row r="56" ht="12.0" customHeight="1">
+    <row r="56" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
     </row>
-    <row r="57" ht="12.0" customHeight="1">
+    <row r="57" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
     </row>
-    <row r="58" ht="12.0" customHeight="1">
+    <row r="58" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
     </row>
-    <row r="59" ht="12.0" customHeight="1">
+    <row r="59" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
     </row>
-    <row r="60" ht="12.0" customHeight="1">
+    <row r="60" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
     </row>
-    <row r="61" ht="12.0" customHeight="1">
+    <row r="61" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
     </row>
-    <row r="62" ht="12.0" customHeight="1">
+    <row r="62" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
     </row>
-    <row r="63" ht="12.0" customHeight="1">
+    <row r="63" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
     </row>
-    <row r="64" ht="12.0" customHeight="1">
+    <row r="64" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
     </row>
-    <row r="65" ht="12.0" customHeight="1">
+    <row r="65" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
     </row>
-    <row r="66" ht="12.0" customHeight="1">
+    <row r="66" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
     </row>
-    <row r="67" ht="12.0" customHeight="1">
+    <row r="67" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
     </row>
-    <row r="68" ht="12.0" customHeight="1">
+    <row r="68" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
     </row>
-    <row r="69" ht="12.0" customHeight="1">
+    <row r="69" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
     </row>
-    <row r="70" ht="12.0" customHeight="1">
+    <row r="70" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
     </row>
-    <row r="71" ht="12.0" customHeight="1">
+    <row r="71" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
     </row>
-    <row r="72" ht="12.0" customHeight="1">
+    <row r="72" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
     </row>
-    <row r="73" ht="12.0" customHeight="1">
+    <row r="73" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
     </row>
-    <row r="74" ht="12.0" customHeight="1">
+    <row r="74" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
     </row>
-    <row r="75" ht="12.0" customHeight="1">
+    <row r="75" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
     </row>
-    <row r="76" ht="12.0" customHeight="1">
+    <row r="76" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
     </row>
-    <row r="77" ht="12.0" customHeight="1">
+    <row r="77" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
     </row>
-    <row r="78" ht="12.0" customHeight="1">
+    <row r="78" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
     </row>
-    <row r="79" ht="12.0" customHeight="1">
+    <row r="79" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
     </row>
-    <row r="80" ht="12.0" customHeight="1">
+    <row r="80" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
     </row>
-    <row r="81" ht="12.0" customHeight="1">
+    <row r="81" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
     </row>
-    <row r="82" ht="12.0" customHeight="1">
+    <row r="82" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G82" s="14"/>
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
     </row>
-    <row r="83" ht="12.0" customHeight="1">
+    <row r="83" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
     </row>
-    <row r="84" ht="12.0" customHeight="1">
+    <row r="84" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
     </row>
-    <row r="85" ht="12.0" customHeight="1">
+    <row r="85" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
     </row>
-    <row r="86" ht="12.0" customHeight="1">
+    <row r="86" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G86" s="14"/>
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
     </row>
-    <row r="87" ht="12.0" customHeight="1">
+    <row r="87" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
     </row>
-    <row r="88" ht="12.0" customHeight="1">
+    <row r="88" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
     </row>
-    <row r="89" ht="12.0" customHeight="1">
+    <row r="89" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
     </row>
-    <row r="90" ht="12.0" customHeight="1">
+    <row r="90" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
     </row>
-    <row r="91" ht="12.0" customHeight="1">
+    <row r="91" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
     </row>
-    <row r="92" ht="12.0" customHeight="1">
+    <row r="92" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
     </row>
-    <row r="93" ht="12.0" customHeight="1">
+    <row r="93" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
     </row>
-    <row r="94" ht="12.0" customHeight="1">
+    <row r="94" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
     </row>
-    <row r="95" ht="12.0" customHeight="1">
+    <row r="95" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
     </row>
-    <row r="96" ht="12.0" customHeight="1">
+    <row r="96" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
     </row>
-    <row r="97" ht="12.0" customHeight="1">
+    <row r="97" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G97" s="14"/>
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
     </row>
-    <row r="98" ht="12.0" customHeight="1">
+    <row r="98" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G98" s="14"/>
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
     </row>
-    <row r="99" ht="12.0" customHeight="1">
+    <row r="99" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
     </row>
-    <row r="100" ht="12.0" customHeight="1">
+    <row r="100" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G100" s="14"/>
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
     </row>
-    <row r="101" ht="12.0" customHeight="1">
+    <row r="101" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G101" s="14"/>
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
     </row>
-    <row r="102" ht="12.0" customHeight="1">
+    <row r="102" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G102" s="14"/>
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
     </row>
-    <row r="103" ht="12.0" customHeight="1">
+    <row r="103" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
     </row>
-    <row r="104" ht="12.0" customHeight="1">
+    <row r="104" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
     </row>
-    <row r="105" ht="12.0" customHeight="1">
+    <row r="105" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G105" s="14"/>
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
     </row>
-    <row r="106" ht="12.0" customHeight="1">
+    <row r="106" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G106" s="14"/>
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
     </row>
-    <row r="107" ht="12.0" customHeight="1">
+    <row r="107" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G107" s="14"/>
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
     </row>
-    <row r="108" ht="12.0" customHeight="1">
+    <row r="108" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G108" s="14"/>
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
     </row>
-    <row r="109" ht="12.0" customHeight="1">
+    <row r="109" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G109" s="14"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
     </row>
-    <row r="110" ht="12.0" customHeight="1">
+    <row r="110" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G110" s="14"/>
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
     </row>
-    <row r="111" ht="12.0" customHeight="1">
+    <row r="111" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
     </row>
-    <row r="112" ht="12.0" customHeight="1">
+    <row r="112" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G112" s="14"/>
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
     </row>
-    <row r="113" ht="12.0" customHeight="1">
+    <row r="113" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G113" s="14"/>
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
     </row>
-    <row r="114" ht="12.0" customHeight="1">
+    <row r="114" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G114" s="14"/>
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
     </row>
-    <row r="115" ht="12.0" customHeight="1">
+    <row r="115" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
     </row>
-    <row r="116" ht="12.0" customHeight="1">
+    <row r="116" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G116" s="14"/>
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
     </row>
-    <row r="117" ht="12.0" customHeight="1">
+    <row r="117" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G117" s="14"/>
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
     </row>
-    <row r="118" ht="12.0" customHeight="1">
+    <row r="118" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G118" s="14"/>
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
     </row>
-    <row r="119" ht="12.0" customHeight="1">
+    <row r="119" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G119" s="14"/>
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
     </row>
-    <row r="120" ht="12.0" customHeight="1">
+    <row r="120" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G120" s="14"/>
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
     </row>
-    <row r="121" ht="12.0" customHeight="1">
+    <row r="121" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G121" s="14"/>
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
     </row>
-    <row r="122" ht="12.0" customHeight="1">
+    <row r="122" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G122" s="14"/>
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
     </row>
-    <row r="123" ht="12.0" customHeight="1">
+    <row r="123" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G123" s="14"/>
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
     </row>
-    <row r="124" ht="12.0" customHeight="1">
+    <row r="124" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G124" s="14"/>
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
     </row>
-    <row r="125" ht="12.0" customHeight="1">
+    <row r="125" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G125" s="14"/>
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
     </row>
-    <row r="126" ht="12.0" customHeight="1">
+    <row r="126" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G126" s="14"/>
       <c r="H126" s="14"/>
       <c r="I126" s="14"/>
     </row>
-    <row r="127" ht="12.0" customHeight="1">
+    <row r="127" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
     </row>
-    <row r="128" ht="12.0" customHeight="1">
+    <row r="128" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G128" s="14"/>
       <c r="H128" s="14"/>
       <c r="I128" s="14"/>
     </row>
-    <row r="129" ht="12.0" customHeight="1">
+    <row r="129" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G129" s="14"/>
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
     </row>
-    <row r="130" ht="12.0" customHeight="1">
+    <row r="130" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G130" s="14"/>
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
     </row>
-    <row r="131" ht="12.0" customHeight="1">
+    <row r="131" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G131" s="14"/>
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
     </row>
-    <row r="132" ht="12.0" customHeight="1">
+    <row r="132" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G132" s="14"/>
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
     </row>
-    <row r="133" ht="12.0" customHeight="1">
+    <row r="133" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G133" s="14"/>
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
     </row>
-    <row r="134" ht="12.0" customHeight="1">
+    <row r="134" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G134" s="14"/>
       <c r="H134" s="14"/>
       <c r="I134" s="14"/>
     </row>
-    <row r="135" ht="12.0" customHeight="1">
+    <row r="135" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G135" s="14"/>
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
     </row>
-    <row r="136" ht="12.0" customHeight="1">
+    <row r="136" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G136" s="14"/>
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
     </row>
-    <row r="137" ht="12.0" customHeight="1">
+    <row r="137" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G137" s="14"/>
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
     </row>
-    <row r="138" ht="12.0" customHeight="1">
+    <row r="138" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G138" s="14"/>
       <c r="H138" s="14"/>
       <c r="I138" s="14"/>
     </row>
-    <row r="139" ht="12.0" customHeight="1">
+    <row r="139" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G139" s="14"/>
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
     </row>
-    <row r="140" ht="12.0" customHeight="1">
+    <row r="140" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G140" s="14"/>
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
     </row>
-    <row r="141" ht="12.0" customHeight="1">
+    <row r="141" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G141" s="14"/>
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
     </row>
-    <row r="142" ht="12.0" customHeight="1">
+    <row r="142" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G142" s="14"/>
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
     </row>
-    <row r="143" ht="12.0" customHeight="1">
+    <row r="143" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G143" s="14"/>
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
     </row>
-    <row r="144" ht="12.0" customHeight="1">
+    <row r="144" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G144" s="14"/>
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
     </row>
-    <row r="145" ht="12.0" customHeight="1">
+    <row r="145" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G145" s="14"/>
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
     </row>
-    <row r="146" ht="12.0" customHeight="1">
+    <row r="146" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G146" s="14"/>
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
     </row>
-    <row r="147" ht="12.0" customHeight="1">
+    <row r="147" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G147" s="14"/>
       <c r="H147" s="14"/>
       <c r="I147" s="14"/>
     </row>
-    <row r="148" ht="12.0" customHeight="1">
+    <row r="148" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G148" s="14"/>
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
     </row>
-    <row r="149" ht="12.0" customHeight="1">
+    <row r="149" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G149" s="14"/>
       <c r="H149" s="14"/>
       <c r="I149" s="14"/>
     </row>
-    <row r="150" ht="12.0" customHeight="1">
+    <row r="150" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G150" s="14"/>
       <c r="H150" s="14"/>
       <c r="I150" s="14"/>
     </row>
-    <row r="151" ht="12.0" customHeight="1">
+    <row r="151" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G151" s="14"/>
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
     </row>
-    <row r="152" ht="12.0" customHeight="1">
+    <row r="152" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G152" s="14"/>
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
     </row>
-    <row r="153" ht="12.0" customHeight="1">
+    <row r="153" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G153" s="14"/>
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
     </row>
-    <row r="154" ht="12.0" customHeight="1">
+    <row r="154" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G154" s="14"/>
       <c r="H154" s="14"/>
       <c r="I154" s="14"/>
     </row>
-    <row r="155" ht="12.0" customHeight="1">
+    <row r="155" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G155" s="14"/>
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
     </row>
-    <row r="156" ht="12.0" customHeight="1">
+    <row r="156" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G156" s="14"/>
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
     </row>
-    <row r="157" ht="12.0" customHeight="1">
+    <row r="157" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G157" s="14"/>
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
     </row>
-    <row r="158" ht="12.0" customHeight="1">
+    <row r="158" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G158" s="14"/>
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
     </row>
-    <row r="159" ht="12.0" customHeight="1">
+    <row r="159" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G159" s="14"/>
       <c r="H159" s="14"/>
       <c r="I159" s="14"/>
     </row>
-    <row r="160" ht="12.0" customHeight="1">
+    <row r="160" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G160" s="14"/>
       <c r="H160" s="14"/>
       <c r="I160" s="14"/>
     </row>
-    <row r="161" ht="12.0" customHeight="1">
+    <row r="161" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G161" s="14"/>
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
     </row>
-    <row r="162" ht="12.0" customHeight="1">
+    <row r="162" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G162" s="14"/>
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
     </row>
-    <row r="163" ht="12.0" customHeight="1">
+    <row r="163" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G163" s="14"/>
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
     </row>
-    <row r="164" ht="12.0" customHeight="1">
+    <row r="164" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G164" s="14"/>
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
     </row>
-    <row r="165" ht="12.0" customHeight="1">
+    <row r="165" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G165" s="14"/>
       <c r="H165" s="14"/>
       <c r="I165" s="14"/>
     </row>
-    <row r="166" ht="12.0" customHeight="1">
+    <row r="166" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G166" s="14"/>
       <c r="H166" s="14"/>
       <c r="I166" s="14"/>
     </row>
-    <row r="167" ht="12.0" customHeight="1">
+    <row r="167" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G167" s="14"/>
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
     </row>
-    <row r="168" ht="12.0" customHeight="1">
+    <row r="168" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G168" s="14"/>
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
     </row>
-    <row r="169" ht="12.0" customHeight="1">
+    <row r="169" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G169" s="14"/>
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
     </row>
-    <row r="170" ht="12.0" customHeight="1">
+    <row r="170" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G170" s="14"/>
       <c r="H170" s="14"/>
       <c r="I170" s="14"/>
     </row>
-    <row r="171" ht="12.0" customHeight="1">
+    <row r="171" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G171" s="14"/>
       <c r="H171" s="14"/>
       <c r="I171" s="14"/>
     </row>
-    <row r="172" ht="12.0" customHeight="1">
+    <row r="172" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G172" s="14"/>
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
     </row>
-    <row r="173" ht="12.0" customHeight="1">
+    <row r="173" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G173" s="14"/>
       <c r="H173" s="14"/>
       <c r="I173" s="14"/>
     </row>
-    <row r="174" ht="12.0" customHeight="1">
+    <row r="174" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G174" s="14"/>
       <c r="H174" s="14"/>
       <c r="I174" s="14"/>
     </row>
-    <row r="175" ht="12.0" customHeight="1">
+    <row r="175" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G175" s="14"/>
       <c r="H175" s="14"/>
       <c r="I175" s="14"/>
     </row>
-    <row r="176" ht="12.0" customHeight="1">
+    <row r="176" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G176" s="14"/>
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
     </row>
-    <row r="177" ht="12.0" customHeight="1">
+    <row r="177" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G177" s="14"/>
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
     </row>
-    <row r="178" ht="12.0" customHeight="1">
+    <row r="178" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G178" s="14"/>
       <c r="H178" s="14"/>
       <c r="I178" s="14"/>
     </row>
-    <row r="179" ht="12.0" customHeight="1">
+    <row r="179" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G179" s="14"/>
       <c r="H179" s="14"/>
       <c r="I179" s="14"/>
     </row>
-    <row r="180" ht="12.0" customHeight="1">
+    <row r="180" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G180" s="14"/>
       <c r="H180" s="14"/>
       <c r="I180" s="14"/>
     </row>
-    <row r="181" ht="12.0" customHeight="1">
+    <row r="181" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G181" s="14"/>
       <c r="H181" s="14"/>
       <c r="I181" s="14"/>
     </row>
-    <row r="182" ht="12.0" customHeight="1">
+    <row r="182" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G182" s="14"/>
       <c r="H182" s="14"/>
       <c r="I182" s="14"/>
     </row>
-    <row r="183" ht="12.0" customHeight="1">
+    <row r="183" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G183" s="14"/>
       <c r="H183" s="14"/>
       <c r="I183" s="14"/>
     </row>
-    <row r="184" ht="12.0" customHeight="1">
+    <row r="184" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G184" s="14"/>
       <c r="H184" s="14"/>
       <c r="I184" s="14"/>
     </row>
-    <row r="185" ht="12.0" customHeight="1">
+    <row r="185" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G185" s="14"/>
       <c r="H185" s="14"/>
       <c r="I185" s="14"/>
     </row>
-    <row r="186" ht="12.0" customHeight="1">
+    <row r="186" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G186" s="14"/>
       <c r="H186" s="14"/>
       <c r="I186" s="14"/>
     </row>
-    <row r="187" ht="12.0" customHeight="1">
+    <row r="187" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G187" s="14"/>
       <c r="H187" s="14"/>
       <c r="I187" s="14"/>
     </row>
-    <row r="188" ht="12.0" customHeight="1">
+    <row r="188" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G188" s="14"/>
       <c r="H188" s="14"/>
       <c r="I188" s="14"/>
     </row>
-    <row r="189" ht="12.0" customHeight="1">
+    <row r="189" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G189" s="14"/>
       <c r="H189" s="14"/>
       <c r="I189" s="14"/>
     </row>
-    <row r="190" ht="12.0" customHeight="1">
+    <row r="190" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G190" s="14"/>
       <c r="H190" s="14"/>
       <c r="I190" s="14"/>
     </row>
-    <row r="191" ht="12.0" customHeight="1">
+    <row r="191" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G191" s="14"/>
       <c r="H191" s="14"/>
       <c r="I191" s="14"/>
     </row>
-    <row r="192" ht="12.0" customHeight="1">
+    <row r="192" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G192" s="14"/>
       <c r="H192" s="14"/>
       <c r="I192" s="14"/>
     </row>
-    <row r="193" ht="12.0" customHeight="1">
+    <row r="193" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G193" s="14"/>
       <c r="H193" s="14"/>
       <c r="I193" s="14"/>
     </row>
-    <row r="194" ht="12.0" customHeight="1">
+    <row r="194" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G194" s="14"/>
       <c r="H194" s="14"/>
       <c r="I194" s="14"/>
     </row>
-    <row r="195" ht="12.0" customHeight="1">
+    <row r="195" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G195" s="14"/>
       <c r="H195" s="14"/>
       <c r="I195" s="14"/>
     </row>
-    <row r="196" ht="12.0" customHeight="1">
+    <row r="196" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G196" s="14"/>
       <c r="H196" s="14"/>
       <c r="I196" s="14"/>
     </row>
-    <row r="197" ht="12.0" customHeight="1">
+    <row r="197" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G197" s="14"/>
       <c r="H197" s="14"/>
       <c r="I197" s="14"/>
     </row>
-    <row r="198" ht="12.0" customHeight="1">
+    <row r="198" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G198" s="14"/>
       <c r="H198" s="14"/>
       <c r="I198" s="14"/>
     </row>
-    <row r="199" ht="12.0" customHeight="1">
+    <row r="199" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G199" s="14"/>
       <c r="H199" s="14"/>
       <c r="I199" s="14"/>
     </row>
-    <row r="200" ht="12.0" customHeight="1">
+    <row r="200" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G200" s="14"/>
       <c r="H200" s="14"/>
       <c r="I200" s="14"/>
     </row>
-    <row r="201" ht="12.0" customHeight="1">
+    <row r="201" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G201" s="14"/>
       <c r="H201" s="14"/>
       <c r="I201" s="14"/>
     </row>
-    <row r="202" ht="12.0" customHeight="1">
+    <row r="202" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G202" s="14"/>
       <c r="H202" s="14"/>
       <c r="I202" s="14"/>
     </row>
-    <row r="203" ht="12.0" customHeight="1">
+    <row r="203" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G203" s="14"/>
       <c r="H203" s="14"/>
       <c r="I203" s="14"/>
     </row>
-    <row r="204" ht="12.0" customHeight="1">
+    <row r="204" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G204" s="14"/>
       <c r="H204" s="14"/>
       <c r="I204" s="14"/>
     </row>
-    <row r="205" ht="12.0" customHeight="1">
+    <row r="205" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G205" s="14"/>
       <c r="H205" s="14"/>
       <c r="I205" s="14"/>
     </row>
-    <row r="206" ht="12.0" customHeight="1">
+    <row r="206" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G206" s="14"/>
       <c r="H206" s="14"/>
       <c r="I206" s="14"/>
     </row>
-    <row r="207" ht="12.0" customHeight="1">
+    <row r="207" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G207" s="14"/>
       <c r="H207" s="14"/>
       <c r="I207" s="14"/>
     </row>
-    <row r="208" ht="12.0" customHeight="1">
+    <row r="208" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G208" s="14"/>
       <c r="H208" s="14"/>
       <c r="I208" s="14"/>
     </row>
-    <row r="209" ht="12.0" customHeight="1">
+    <row r="209" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G209" s="14"/>
       <c r="H209" s="14"/>
       <c r="I209" s="14"/>
     </row>
-    <row r="210" ht="12.0" customHeight="1">
+    <row r="210" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G210" s="14"/>
       <c r="H210" s="14"/>
       <c r="I210" s="14"/>
     </row>
-    <row r="211" ht="12.0" customHeight="1">
+    <row r="211" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G211" s="14"/>
       <c r="H211" s="14"/>
       <c r="I211" s="14"/>
     </row>
-    <row r="212" ht="12.0" customHeight="1">
+    <row r="212" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G212" s="14"/>
       <c r="H212" s="14"/>
       <c r="I212" s="14"/>
     </row>
-    <row r="213" ht="12.0" customHeight="1">
+    <row r="213" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G213" s="14"/>
       <c r="H213" s="14"/>
       <c r="I213" s="14"/>
     </row>
-    <row r="214" ht="12.0" customHeight="1">
+    <row r="214" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G214" s="14"/>
       <c r="H214" s="14"/>
       <c r="I214" s="14"/>
     </row>
-    <row r="215" ht="12.0" customHeight="1">
+    <row r="215" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G215" s="14"/>
       <c r="H215" s="14"/>
       <c r="I215" s="14"/>
     </row>
-    <row r="216" ht="12.0" customHeight="1">
+    <row r="216" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G216" s="14"/>
       <c r="H216" s="14"/>
       <c r="I216" s="14"/>
     </row>
-    <row r="217" ht="12.0" customHeight="1">
+    <row r="217" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G217" s="14"/>
       <c r="H217" s="14"/>
       <c r="I217" s="14"/>
     </row>
-    <row r="218" ht="12.0" customHeight="1">
+    <row r="218" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G218" s="14"/>
       <c r="H218" s="14"/>
       <c r="I218" s="14"/>
     </row>
-    <row r="219" ht="12.0" customHeight="1">
+    <row r="219" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G219" s="14"/>
       <c r="H219" s="14"/>
       <c r="I219" s="14"/>
     </row>
-    <row r="220" ht="12.0" customHeight="1">
+    <row r="220" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G220" s="14"/>
       <c r="H220" s="14"/>
       <c r="I220" s="14"/>
     </row>
-    <row r="221" ht="12.0" customHeight="1">
+    <row r="221" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G221" s="14"/>
       <c r="H221" s="14"/>
       <c r="I221" s="14"/>
     </row>
-    <row r="222" ht="12.0" customHeight="1">
+    <row r="222" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G222" s="14"/>
       <c r="H222" s="14"/>
       <c r="I222" s="14"/>
     </row>
-    <row r="223" ht="12.0" customHeight="1">
+    <row r="223" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G223" s="14"/>
       <c r="H223" s="14"/>
       <c r="I223" s="14"/>
     </row>
-    <row r="224" ht="12.0" customHeight="1">
+    <row r="224" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G224" s="14"/>
       <c r="H224" s="14"/>
       <c r="I224" s="14"/>
     </row>
-    <row r="225" ht="12.0" customHeight="1">
+    <row r="225" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G225" s="14"/>
       <c r="H225" s="14"/>
       <c r="I225" s="14"/>
     </row>
-    <row r="226" ht="12.0" customHeight="1">
+    <row r="226" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G226" s="14"/>
       <c r="H226" s="14"/>
       <c r="I226" s="14"/>
     </row>
-    <row r="227" ht="12.0" customHeight="1">
+    <row r="227" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G227" s="14"/>
       <c r="H227" s="14"/>
       <c r="I227" s="14"/>
     </row>
-    <row r="228" ht="12.0" customHeight="1">
+    <row r="228" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G228" s="14"/>
       <c r="H228" s="14"/>
       <c r="I228" s="14"/>
     </row>
-    <row r="229" ht="12.0" customHeight="1">
+    <row r="229" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G229" s="14"/>
       <c r="H229" s="14"/>
       <c r="I229" s="14"/>
     </row>
-    <row r="230" ht="12.0" customHeight="1">
+    <row r="230" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G230" s="14"/>
       <c r="H230" s="14"/>
       <c r="I230" s="14"/>
     </row>
-    <row r="231" ht="12.0" customHeight="1">
+    <row r="231" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G231" s="14"/>
       <c r="H231" s="14"/>
       <c r="I231" s="14"/>
     </row>
-    <row r="232" ht="12.0" customHeight="1">
+    <row r="232" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G232" s="14"/>
       <c r="H232" s="14"/>
       <c r="I232" s="14"/>
     </row>
-    <row r="233" ht="12.0" customHeight="1">
+    <row r="233" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G233" s="14"/>
       <c r="H233" s="14"/>
       <c r="I233" s="14"/>
     </row>
-    <row r="234" ht="12.0" customHeight="1">
+    <row r="234" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G234" s="14"/>
       <c r="H234" s="14"/>
       <c r="I234" s="14"/>
     </row>
-    <row r="235" ht="12.0" customHeight="1">
+    <row r="235" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G235" s="14"/>
       <c r="H235" s="14"/>
       <c r="I235" s="14"/>
     </row>
-    <row r="236" ht="12.0" customHeight="1">
+    <row r="236" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G236" s="14"/>
       <c r="H236" s="14"/>
       <c r="I236" s="14"/>
     </row>
-    <row r="237" ht="12.0" customHeight="1">
+    <row r="237" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G237" s="14"/>
       <c r="H237" s="14"/>
       <c r="I237" s="14"/>
     </row>
-    <row r="238" ht="12.0" customHeight="1">
+    <row r="238" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G238" s="14"/>
       <c r="H238" s="14"/>
       <c r="I238" s="14"/>
     </row>
-    <row r="239" ht="12.0" customHeight="1">
+    <row r="239" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G239" s="14"/>
       <c r="H239" s="14"/>
       <c r="I239" s="14"/>
     </row>
-    <row r="240" ht="12.0" customHeight="1">
+    <row r="240" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G240" s="14"/>
       <c r="H240" s="14"/>
       <c r="I240" s="14"/>
     </row>
-    <row r="241" ht="12.0" customHeight="1">
+    <row r="241" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G241" s="14"/>
       <c r="H241" s="14"/>
       <c r="I241" s="14"/>
     </row>
-    <row r="242" ht="12.0" customHeight="1">
+    <row r="242" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G242" s="14"/>
       <c r="H242" s="14"/>
       <c r="I242" s="14"/>
     </row>
-    <row r="243" ht="12.0" customHeight="1">
+    <row r="243" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G243" s="14"/>
       <c r="H243" s="14"/>
       <c r="I243" s="14"/>
     </row>
-    <row r="244" ht="12.0" customHeight="1">
+    <row r="244" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G244" s="14"/>
       <c r="H244" s="14"/>
       <c r="I244" s="14"/>
     </row>
-    <row r="245" ht="12.0" customHeight="1">
+    <row r="245" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G245" s="14"/>
       <c r="H245" s="14"/>
       <c r="I245" s="14"/>
     </row>
-    <row r="246" ht="12.0" customHeight="1">
+    <row r="246" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G246" s="14"/>
       <c r="H246" s="14"/>
       <c r="I246" s="14"/>
     </row>
-    <row r="247" ht="12.0" customHeight="1">
+    <row r="247" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G247" s="14"/>
       <c r="H247" s="14"/>
       <c r="I247" s="14"/>
     </row>
-    <row r="248" ht="12.0" customHeight="1">
+    <row r="248" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G248" s="14"/>
       <c r="H248" s="14"/>
       <c r="I248" s="14"/>
     </row>
-    <row r="249" ht="12.0" customHeight="1">
+    <row r="249" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G249" s="14"/>
       <c r="H249" s="14"/>
       <c r="I249" s="14"/>
     </row>
-    <row r="250" ht="12.0" customHeight="1">
+    <row r="250" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G250" s="14"/>
       <c r="H250" s="14"/>
       <c r="I250" s="14"/>
     </row>
-    <row r="251" ht="12.0" customHeight="1">
+    <row r="251" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G251" s="14"/>
       <c r="H251" s="14"/>
       <c r="I251" s="14"/>
     </row>
-    <row r="252" ht="12.0" customHeight="1">
+    <row r="252" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G252" s="14"/>
       <c r="H252" s="14"/>
       <c r="I252" s="14"/>
     </row>
-    <row r="253" ht="12.0" customHeight="1">
+    <row r="253" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G253" s="14"/>
       <c r="H253" s="14"/>
       <c r="I253" s="14"/>
     </row>
-    <row r="254" ht="12.0" customHeight="1">
+    <row r="254" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G254" s="14"/>
       <c r="H254" s="14"/>
       <c r="I254" s="14"/>
     </row>
-    <row r="255" ht="12.0" customHeight="1">
+    <row r="255" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G255" s="14"/>
       <c r="H255" s="14"/>
       <c r="I255" s="14"/>
     </row>
-    <row r="256" ht="12.0" customHeight="1">
+    <row r="256" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G256" s="14"/>
       <c r="H256" s="14"/>
       <c r="I256" s="14"/>
     </row>
-    <row r="257" ht="12.0" customHeight="1">
+    <row r="257" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G257" s="14"/>
       <c r="H257" s="14"/>
       <c r="I257" s="14"/>
     </row>
-    <row r="258" ht="12.0" customHeight="1">
+    <row r="258" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G258" s="14"/>
       <c r="H258" s="14"/>
       <c r="I258" s="14"/>
     </row>
-    <row r="259" ht="12.0" customHeight="1">
+    <row r="259" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G259" s="14"/>
       <c r="H259" s="14"/>
       <c r="I259" s="14"/>
     </row>
-    <row r="260" ht="12.0" customHeight="1">
+    <row r="260" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G260" s="14"/>
       <c r="H260" s="14"/>
       <c r="I260" s="14"/>
     </row>
-    <row r="261" ht="12.0" customHeight="1">
+    <row r="261" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G261" s="14"/>
       <c r="H261" s="14"/>
       <c r="I261" s="14"/>
     </row>
-    <row r="262" ht="12.0" customHeight="1">
+    <row r="262" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G262" s="14"/>
       <c r="H262" s="14"/>
       <c r="I262" s="14"/>
     </row>
-    <row r="263" ht="12.0" customHeight="1">
+    <row r="263" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G263" s="14"/>
       <c r="H263" s="14"/>
       <c r="I263" s="14"/>
     </row>
-    <row r="264" ht="12.0" customHeight="1">
+    <row r="264" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G264" s="14"/>
       <c r="H264" s="14"/>
       <c r="I264" s="14"/>
     </row>
-    <row r="265" ht="12.0" customHeight="1">
+    <row r="265" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G265" s="14"/>
       <c r="H265" s="14"/>
       <c r="I265" s="14"/>
     </row>
-    <row r="266" ht="12.0" customHeight="1">
+    <row r="266" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G266" s="14"/>
       <c r="H266" s="14"/>
       <c r="I266" s="14"/>
     </row>
-    <row r="267" ht="12.0" customHeight="1">
+    <row r="267" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G267" s="14"/>
       <c r="H267" s="14"/>
       <c r="I267" s="14"/>
     </row>
-    <row r="268" ht="12.0" customHeight="1">
+    <row r="268" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G268" s="14"/>
       <c r="H268" s="14"/>
       <c r="I268" s="14"/>
     </row>
-    <row r="269" ht="12.0" customHeight="1">
+    <row r="269" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G269" s="14"/>
       <c r="H269" s="14"/>
       <c r="I269" s="14"/>
     </row>
-    <row r="270" ht="12.0" customHeight="1">
+    <row r="270" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G270" s="14"/>
       <c r="H270" s="14"/>
       <c r="I270" s="14"/>
     </row>
-    <row r="271" ht="12.0" customHeight="1">
+    <row r="271" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G271" s="14"/>
       <c r="H271" s="14"/>
       <c r="I271" s="14"/>
     </row>
-    <row r="272" ht="12.0" customHeight="1">
+    <row r="272" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G272" s="14"/>
       <c r="H272" s="14"/>
       <c r="I272" s="14"/>
     </row>
-    <row r="273" ht="12.0" customHeight="1">
+    <row r="273" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G273" s="14"/>
       <c r="H273" s="14"/>
       <c r="I273" s="14"/>
     </row>
-    <row r="274" ht="12.0" customHeight="1">
+    <row r="274" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G274" s="14"/>
       <c r="H274" s="14"/>
       <c r="I274" s="14"/>
     </row>
-    <row r="275" ht="12.0" customHeight="1">
+    <row r="275" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G275" s="14"/>
       <c r="H275" s="14"/>
       <c r="I275" s="14"/>
     </row>
-    <row r="276" ht="12.0" customHeight="1">
+    <row r="276" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G276" s="14"/>
       <c r="H276" s="14"/>
       <c r="I276" s="14"/>
     </row>
-    <row r="277" ht="12.0" customHeight="1">
+    <row r="277" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G277" s="14"/>
       <c r="H277" s="14"/>
       <c r="I277" s="14"/>
     </row>
-    <row r="278" ht="12.0" customHeight="1">
+    <row r="278" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G278" s="14"/>
       <c r="H278" s="14"/>
       <c r="I278" s="14"/>
     </row>
-    <row r="279" ht="12.0" customHeight="1">
+    <row r="279" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G279" s="14"/>
       <c r="H279" s="14"/>
       <c r="I279" s="14"/>
     </row>
-    <row r="280" ht="12.0" customHeight="1">
+    <row r="280" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G280" s="14"/>
       <c r="H280" s="14"/>
       <c r="I280" s="14"/>
     </row>
-    <row r="281" ht="12.0" customHeight="1">
+    <row r="281" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G281" s="14"/>
       <c r="H281" s="14"/>
       <c r="I281" s="14"/>
     </row>
-    <row r="282" ht="12.0" customHeight="1">
+    <row r="282" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G282" s="14"/>
       <c r="H282" s="14"/>
       <c r="I282" s="14"/>
     </row>
-    <row r="283" ht="12.0" customHeight="1">
+    <row r="283" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G283" s="14"/>
       <c r="H283" s="14"/>
       <c r="I283" s="14"/>
     </row>
-    <row r="284" ht="12.0" customHeight="1">
+    <row r="284" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G284" s="14"/>
       <c r="H284" s="14"/>
       <c r="I284" s="14"/>
     </row>
-    <row r="285" ht="12.0" customHeight="1">
+    <row r="285" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G285" s="14"/>
       <c r="H285" s="14"/>
       <c r="I285" s="14"/>
     </row>
-    <row r="286" ht="12.0" customHeight="1">
+    <row r="286" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G286" s="14"/>
       <c r="H286" s="14"/>
       <c r="I286" s="14"/>
     </row>
-    <row r="287" ht="12.0" customHeight="1">
+    <row r="287" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G287" s="14"/>
       <c r="H287" s="14"/>
       <c r="I287" s="14"/>
     </row>
-    <row r="288" ht="12.0" customHeight="1">
+    <row r="288" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G288" s="14"/>
       <c r="H288" s="14"/>
       <c r="I288" s="14"/>
     </row>
-    <row r="289" ht="12.0" customHeight="1">
+    <row r="289" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G289" s="14"/>
       <c r="H289" s="14"/>
       <c r="I289" s="14"/>
     </row>
-    <row r="290" ht="12.0" customHeight="1">
+    <row r="290" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G290" s="14"/>
       <c r="H290" s="14"/>
       <c r="I290" s="14"/>
     </row>
-    <row r="291" ht="12.0" customHeight="1">
+    <row r="291" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G291" s="14"/>
       <c r="H291" s="14"/>
       <c r="I291" s="14"/>
     </row>
-    <row r="292" ht="12.0" customHeight="1">
+    <row r="292" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G292" s="14"/>
       <c r="H292" s="14"/>
       <c r="I292" s="14"/>
     </row>
-    <row r="293" ht="12.0" customHeight="1">
+    <row r="293" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G293" s="14"/>
       <c r="H293" s="14"/>
       <c r="I293" s="14"/>
     </row>
-    <row r="294" ht="12.0" customHeight="1">
+    <row r="294" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G294" s="14"/>
       <c r="H294" s="14"/>
       <c r="I294" s="14"/>
     </row>
-    <row r="295" ht="12.0" customHeight="1">
+    <row r="295" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G295" s="14"/>
       <c r="H295" s="14"/>
       <c r="I295" s="14"/>
     </row>
-    <row r="296" ht="12.0" customHeight="1">
+    <row r="296" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G296" s="14"/>
       <c r="H296" s="14"/>
       <c r="I296" s="14"/>
     </row>
-    <row r="297" ht="12.0" customHeight="1">
+    <row r="297" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G297" s="14"/>
       <c r="H297" s="14"/>
       <c r="I297" s="14"/>
     </row>
-    <row r="298" ht="12.0" customHeight="1">
+    <row r="298" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G298" s="14"/>
       <c r="H298" s="14"/>
       <c r="I298" s="14"/>
     </row>
-    <row r="299" ht="12.0" customHeight="1">
+    <row r="299" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G299" s="14"/>
       <c r="H299" s="14"/>
       <c r="I299" s="14"/>
     </row>
-    <row r="300" ht="12.0" customHeight="1">
+    <row r="300" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G300" s="14"/>
       <c r="H300" s="14"/>
       <c r="I300" s="14"/>
     </row>
-    <row r="301" ht="12.0" customHeight="1">
+    <row r="301" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G301" s="14"/>
       <c r="H301" s="14"/>
       <c r="I301" s="14"/>
     </row>
-    <row r="302" ht="12.0" customHeight="1">
+    <row r="302" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G302" s="14"/>
       <c r="H302" s="14"/>
       <c r="I302" s="14"/>
     </row>
-    <row r="303" ht="12.0" customHeight="1">
+    <row r="303" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G303" s="14"/>
       <c r="H303" s="14"/>
       <c r="I303" s="14"/>
     </row>
-    <row r="304" ht="12.0" customHeight="1">
+    <row r="304" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G304" s="14"/>
       <c r="H304" s="14"/>
       <c r="I304" s="14"/>
     </row>
-    <row r="305" ht="12.0" customHeight="1">
+    <row r="305" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G305" s="14"/>
       <c r="H305" s="14"/>
       <c r="I305" s="14"/>
     </row>
-    <row r="306" ht="12.0" customHeight="1">
+    <row r="306" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G306" s="14"/>
       <c r="H306" s="14"/>
       <c r="I306" s="14"/>
     </row>
-    <row r="307" ht="12.0" customHeight="1">
+    <row r="307" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G307" s="14"/>
       <c r="H307" s="14"/>
       <c r="I307" s="14"/>
     </row>
-    <row r="308" ht="12.0" customHeight="1">
+    <row r="308" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G308" s="14"/>
       <c r="H308" s="14"/>
       <c r="I308" s="14"/>
     </row>
-    <row r="309" ht="12.0" customHeight="1">
+    <row r="309" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G309" s="14"/>
       <c r="H309" s="14"/>
       <c r="I309" s="14"/>
     </row>
-    <row r="310" ht="12.0" customHeight="1">
+    <row r="310" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G310" s="14"/>
       <c r="H310" s="14"/>
       <c r="I310" s="14"/>
     </row>
-    <row r="311" ht="12.0" customHeight="1">
+    <row r="311" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G311" s="14"/>
       <c r="H311" s="14"/>
       <c r="I311" s="14"/>
     </row>
-    <row r="312" ht="12.0" customHeight="1">
+    <row r="312" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G312" s="14"/>
       <c r="H312" s="14"/>
       <c r="I312" s="14"/>
     </row>
-    <row r="313" ht="12.0" customHeight="1">
+    <row r="313" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G313" s="14"/>
       <c r="H313" s="14"/>
       <c r="I313" s="14"/>
     </row>
-    <row r="314" ht="12.0" customHeight="1">
+    <row r="314" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G314" s="14"/>
       <c r="H314" s="14"/>
       <c r="I314" s="14"/>
     </row>
-    <row r="315" ht="12.0" customHeight="1">
+    <row r="315" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G315" s="14"/>
       <c r="H315" s="14"/>
       <c r="I315" s="14"/>
     </row>
-    <row r="316" ht="12.0" customHeight="1">
+    <row r="316" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G316" s="14"/>
       <c r="H316" s="14"/>
       <c r="I316" s="14"/>
     </row>
-    <row r="317" ht="12.0" customHeight="1">
+    <row r="317" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G317" s="14"/>
       <c r="H317" s="14"/>
       <c r="I317" s="14"/>
     </row>
-    <row r="318" ht="12.0" customHeight="1">
+    <row r="318" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G318" s="14"/>
       <c r="H318" s="14"/>
       <c r="I318" s="14"/>
     </row>
-    <row r="319" ht="12.0" customHeight="1">
+    <row r="319" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G319" s="14"/>
       <c r="H319" s="14"/>
       <c r="I319" s="14"/>
     </row>
-    <row r="320" ht="12.0" customHeight="1">
+    <row r="320" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G320" s="14"/>
       <c r="H320" s="14"/>
       <c r="I320" s="14"/>
     </row>
-    <row r="321" ht="12.0" customHeight="1">
+    <row r="321" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G321" s="14"/>
       <c r="H321" s="14"/>
       <c r="I321" s="14"/>
     </row>
-    <row r="322" ht="12.0" customHeight="1">
+    <row r="322" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G322" s="14"/>
       <c r="H322" s="14"/>
       <c r="I322" s="14"/>
     </row>
-    <row r="323" ht="12.0" customHeight="1">
+    <row r="323" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G323" s="14"/>
       <c r="H323" s="14"/>
       <c r="I323" s="14"/>
     </row>
-    <row r="324" ht="12.0" customHeight="1">
+    <row r="324" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G324" s="14"/>
       <c r="H324" s="14"/>
       <c r="I324" s="14"/>
     </row>
-    <row r="325" ht="12.0" customHeight="1">
+    <row r="325" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G325" s="14"/>
       <c r="H325" s="14"/>
       <c r="I325" s="14"/>
     </row>
-    <row r="326" ht="12.0" customHeight="1">
+    <row r="326" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G326" s="14"/>
       <c r="H326" s="14"/>
       <c r="I326" s="14"/>
     </row>
-    <row r="327" ht="12.0" customHeight="1">
+    <row r="327" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G327" s="14"/>
       <c r="H327" s="14"/>
       <c r="I327" s="14"/>
     </row>
-    <row r="328" ht="12.0" customHeight="1">
+    <row r="328" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G328" s="14"/>
       <c r="H328" s="14"/>
       <c r="I328" s="14"/>
     </row>
-    <row r="329" ht="12.0" customHeight="1">
+    <row r="329" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G329" s="14"/>
       <c r="H329" s="14"/>
       <c r="I329" s="14"/>
     </row>
-    <row r="330" ht="12.0" customHeight="1">
+    <row r="330" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G330" s="14"/>
       <c r="H330" s="14"/>
       <c r="I330" s="14"/>
     </row>
-    <row r="331" ht="12.0" customHeight="1">
+    <row r="331" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G331" s="14"/>
       <c r="H331" s="14"/>
       <c r="I331" s="14"/>
     </row>
-    <row r="332" ht="12.0" customHeight="1">
+    <row r="332" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G332" s="14"/>
       <c r="H332" s="14"/>
       <c r="I332" s="14"/>
     </row>
-    <row r="333" ht="12.0" customHeight="1">
+    <row r="333" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G333" s="14"/>
       <c r="H333" s="14"/>
       <c r="I333" s="14"/>
     </row>
-    <row r="334" ht="12.0" customHeight="1">
+    <row r="334" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G334" s="14"/>
       <c r="H334" s="14"/>
       <c r="I334" s="14"/>
     </row>
-    <row r="335" ht="12.0" customHeight="1">
+    <row r="335" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G335" s="14"/>
       <c r="H335" s="14"/>
       <c r="I335" s="14"/>
     </row>
-    <row r="336" ht="12.0" customHeight="1">
+    <row r="336" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G336" s="14"/>
       <c r="H336" s="14"/>
       <c r="I336" s="14"/>
     </row>
-    <row r="337" ht="12.0" customHeight="1">
+    <row r="337" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G337" s="14"/>
       <c r="H337" s="14"/>
       <c r="I337" s="14"/>
     </row>
-    <row r="338" ht="12.0" customHeight="1">
+    <row r="338" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G338" s="14"/>
       <c r="H338" s="14"/>
       <c r="I338" s="14"/>
     </row>
-    <row r="339" ht="12.0" customHeight="1">
+    <row r="339" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G339" s="14"/>
       <c r="H339" s="14"/>
       <c r="I339" s="14"/>
     </row>
-    <row r="340" ht="12.0" customHeight="1">
+    <row r="340" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G340" s="14"/>
       <c r="H340" s="14"/>
       <c r="I340" s="14"/>
     </row>
-    <row r="341" ht="12.0" customHeight="1">
+    <row r="341" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G341" s="14"/>
       <c r="H341" s="14"/>
       <c r="I341" s="14"/>
     </row>
-    <row r="342" ht="12.0" customHeight="1">
+    <row r="342" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G342" s="14"/>
       <c r="H342" s="14"/>
       <c r="I342" s="14"/>
     </row>
-    <row r="343" ht="12.0" customHeight="1">
+    <row r="343" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G343" s="14"/>
       <c r="H343" s="14"/>
       <c r="I343" s="14"/>
     </row>
-    <row r="344" ht="12.0" customHeight="1">
+    <row r="344" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G344" s="14"/>
       <c r="H344" s="14"/>
       <c r="I344" s="14"/>
     </row>
-    <row r="345" ht="12.0" customHeight="1">
+    <row r="345" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G345" s="14"/>
       <c r="H345" s="14"/>
       <c r="I345" s="14"/>
     </row>
-    <row r="346" ht="12.0" customHeight="1">
+    <row r="346" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G346" s="14"/>
       <c r="H346" s="14"/>
       <c r="I346" s="14"/>
     </row>
-    <row r="347" ht="12.0" customHeight="1">
+    <row r="347" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G347" s="14"/>
       <c r="H347" s="14"/>
       <c r="I347" s="14"/>
     </row>
-    <row r="348" ht="12.0" customHeight="1">
+    <row r="348" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G348" s="14"/>
       <c r="H348" s="14"/>
       <c r="I348" s="14"/>
     </row>
-    <row r="349" ht="12.0" customHeight="1">
+    <row r="349" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G349" s="14"/>
       <c r="H349" s="14"/>
       <c r="I349" s="14"/>
     </row>
-    <row r="350" ht="12.0" customHeight="1">
+    <row r="350" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G350" s="14"/>
       <c r="H350" s="14"/>
       <c r="I350" s="14"/>
     </row>
-    <row r="351" ht="12.0" customHeight="1">
+    <row r="351" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G351" s="14"/>
       <c r="H351" s="14"/>
       <c r="I351" s="14"/>
     </row>
-    <row r="352" ht="12.0" customHeight="1">
+    <row r="352" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G352" s="14"/>
       <c r="H352" s="14"/>
       <c r="I352" s="14"/>
     </row>
-    <row r="353" ht="12.0" customHeight="1">
+    <row r="353" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G353" s="14"/>
       <c r="H353" s="14"/>
       <c r="I353" s="14"/>
     </row>
-    <row r="354" ht="12.0" customHeight="1">
+    <row r="354" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G354" s="14"/>
       <c r="H354" s="14"/>
       <c r="I354" s="14"/>
     </row>
-    <row r="355" ht="12.0" customHeight="1">
+    <row r="355" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G355" s="14"/>
       <c r="H355" s="14"/>
       <c r="I355" s="14"/>
     </row>
-    <row r="356" ht="12.0" customHeight="1">
+    <row r="356" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G356" s="14"/>
       <c r="H356" s="14"/>
       <c r="I356" s="14"/>
     </row>
-    <row r="357" ht="12.0" customHeight="1">
+    <row r="357" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G357" s="14"/>
       <c r="H357" s="14"/>
       <c r="I357" s="14"/>
     </row>
-    <row r="358" ht="12.0" customHeight="1">
+    <row r="358" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G358" s="14"/>
       <c r="H358" s="14"/>
       <c r="I358" s="14"/>
     </row>
-    <row r="359" ht="12.0" customHeight="1">
+    <row r="359" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G359" s="14"/>
       <c r="H359" s="14"/>
       <c r="I359" s="14"/>
     </row>
-    <row r="360" ht="12.0" customHeight="1">
+    <row r="360" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G360" s="14"/>
       <c r="H360" s="14"/>
       <c r="I360" s="14"/>
     </row>
-    <row r="361" ht="12.0" customHeight="1">
+    <row r="361" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G361" s="14"/>
       <c r="H361" s="14"/>
       <c r="I361" s="14"/>
     </row>
-    <row r="362" ht="12.0" customHeight="1">
+    <row r="362" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G362" s="14"/>
       <c r="H362" s="14"/>
       <c r="I362" s="14"/>
     </row>
-    <row r="363" ht="12.0" customHeight="1">
+    <row r="363" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G363" s="14"/>
       <c r="H363" s="14"/>
       <c r="I363" s="14"/>
     </row>
-    <row r="364" ht="12.0" customHeight="1">
+    <row r="364" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G364" s="14"/>
       <c r="H364" s="14"/>
       <c r="I364" s="14"/>
     </row>
-    <row r="365" ht="12.0" customHeight="1">
+    <row r="365" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G365" s="14"/>
       <c r="H365" s="14"/>
       <c r="I365" s="14"/>
     </row>
-    <row r="366" ht="12.0" customHeight="1">
+    <row r="366" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G366" s="14"/>
       <c r="H366" s="14"/>
       <c r="I366" s="14"/>
     </row>
-    <row r="367" ht="12.0" customHeight="1">
+    <row r="367" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G367" s="14"/>
       <c r="H367" s="14"/>
       <c r="I367" s="14"/>
     </row>
-    <row r="368" ht="12.0" customHeight="1">
+    <row r="368" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G368" s="14"/>
       <c r="H368" s="14"/>
       <c r="I368" s="14"/>
     </row>
-    <row r="369" ht="12.0" customHeight="1">
+    <row r="369" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G369" s="14"/>
       <c r="H369" s="14"/>
       <c r="I369" s="14"/>
     </row>
-    <row r="370" ht="12.0" customHeight="1">
+    <row r="370" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G370" s="14"/>
       <c r="H370" s="14"/>
       <c r="I370" s="14"/>
     </row>
-    <row r="371" ht="12.0" customHeight="1">
+    <row r="371" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G371" s="14"/>
       <c r="H371" s="14"/>
       <c r="I371" s="14"/>
     </row>
-    <row r="372" ht="12.0" customHeight="1">
+    <row r="372" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G372" s="14"/>
       <c r="H372" s="14"/>
       <c r="I372" s="14"/>
     </row>
-    <row r="373" ht="12.0" customHeight="1">
+    <row r="373" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G373" s="14"/>
       <c r="H373" s="14"/>
       <c r="I373" s="14"/>
     </row>
-    <row r="374" ht="12.0" customHeight="1">
+    <row r="374" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G374" s="14"/>
       <c r="H374" s="14"/>
       <c r="I374" s="14"/>
     </row>
-    <row r="375" ht="12.0" customHeight="1">
+    <row r="375" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G375" s="14"/>
       <c r="H375" s="14"/>
       <c r="I375" s="14"/>
     </row>
-    <row r="376" ht="12.0" customHeight="1">
+    <row r="376" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G376" s="14"/>
       <c r="H376" s="14"/>
       <c r="I376" s="14"/>
     </row>
-    <row r="377" ht="12.0" customHeight="1">
+    <row r="377" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G377" s="14"/>
       <c r="H377" s="14"/>
       <c r="I377" s="14"/>
     </row>
-    <row r="378" ht="12.0" customHeight="1">
+    <row r="378" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G378" s="14"/>
       <c r="H378" s="14"/>
       <c r="I378" s="14"/>
     </row>
-    <row r="379" ht="12.0" customHeight="1">
+    <row r="379" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G379" s="14"/>
       <c r="H379" s="14"/>
       <c r="I379" s="14"/>
     </row>
-    <row r="380" ht="12.0" customHeight="1">
+    <row r="380" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G380" s="14"/>
       <c r="H380" s="14"/>
       <c r="I380" s="14"/>
     </row>
-    <row r="381" ht="12.0" customHeight="1">
+    <row r="381" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G381" s="14"/>
       <c r="H381" s="14"/>
       <c r="I381" s="14"/>
     </row>
-    <row r="382" ht="12.0" customHeight="1">
+    <row r="382" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G382" s="14"/>
       <c r="H382" s="14"/>
       <c r="I382" s="14"/>
     </row>
-    <row r="383" ht="12.0" customHeight="1">
+    <row r="383" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G383" s="14"/>
       <c r="H383" s="14"/>
       <c r="I383" s="14"/>
     </row>
-    <row r="384" ht="12.0" customHeight="1">
+    <row r="384" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G384" s="14"/>
       <c r="H384" s="14"/>
       <c r="I384" s="14"/>
     </row>
-    <row r="385" ht="12.0" customHeight="1">
+    <row r="385" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G385" s="14"/>
       <c r="H385" s="14"/>
       <c r="I385" s="14"/>
     </row>
-    <row r="386" ht="12.0" customHeight="1">
+    <row r="386" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G386" s="14"/>
       <c r="H386" s="14"/>
       <c r="I386" s="14"/>
     </row>
-    <row r="387" ht="12.0" customHeight="1">
+    <row r="387" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G387" s="14"/>
       <c r="H387" s="14"/>
       <c r="I387" s="14"/>
     </row>
-    <row r="388" ht="12.0" customHeight="1">
+    <row r="388" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G388" s="14"/>
       <c r="H388" s="14"/>
       <c r="I388" s="14"/>
     </row>
-    <row r="389" ht="12.0" customHeight="1">
+    <row r="389" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G389" s="14"/>
       <c r="H389" s="14"/>
       <c r="I389" s="14"/>
     </row>
-    <row r="390" ht="12.0" customHeight="1">
+    <row r="390" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G390" s="14"/>
       <c r="H390" s="14"/>
       <c r="I390" s="14"/>
     </row>
-    <row r="391" ht="12.0" customHeight="1">
+    <row r="391" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G391" s="14"/>
       <c r="H391" s="14"/>
       <c r="I391" s="14"/>
     </row>
-    <row r="392" ht="12.0" customHeight="1">
+    <row r="392" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G392" s="14"/>
       <c r="H392" s="14"/>
       <c r="I392" s="14"/>
     </row>
-    <row r="393" ht="12.0" customHeight="1">
+    <row r="393" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G393" s="14"/>
       <c r="H393" s="14"/>
       <c r="I393" s="14"/>
     </row>
-    <row r="394" ht="12.0" customHeight="1">
+    <row r="394" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G394" s="14"/>
       <c r="H394" s="14"/>
       <c r="I394" s="14"/>
     </row>
-    <row r="395" ht="12.0" customHeight="1">
+    <row r="395" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G395" s="14"/>
       <c r="H395" s="14"/>
       <c r="I395" s="14"/>
     </row>
-    <row r="396" ht="12.0" customHeight="1">
+    <row r="396" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G396" s="14"/>
       <c r="H396" s="14"/>
       <c r="I396" s="14"/>
     </row>
-    <row r="397" ht="12.0" customHeight="1">
+    <row r="397" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G397" s="14"/>
       <c r="H397" s="14"/>
       <c r="I397" s="14"/>
     </row>
-    <row r="398" ht="12.0" customHeight="1">
+    <row r="398" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G398" s="14"/>
       <c r="H398" s="14"/>
       <c r="I398" s="14"/>
     </row>
-    <row r="399" ht="12.0" customHeight="1">
+    <row r="399" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G399" s="14"/>
       <c r="H399" s="14"/>
       <c r="I399" s="14"/>
     </row>
-    <row r="400" ht="12.0" customHeight="1">
+    <row r="400" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G400" s="14"/>
       <c r="H400" s="14"/>
       <c r="I400" s="14"/>
     </row>
-    <row r="401" ht="12.0" customHeight="1">
+    <row r="401" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G401" s="14"/>
       <c r="H401" s="14"/>
       <c r="I401" s="14"/>
     </row>
-    <row r="402" ht="12.0" customHeight="1">
+    <row r="402" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G402" s="14"/>
       <c r="H402" s="14"/>
       <c r="I402" s="14"/>
     </row>
-    <row r="403" ht="12.0" customHeight="1">
+    <row r="403" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G403" s="14"/>
       <c r="H403" s="14"/>
       <c r="I403" s="14"/>
     </row>
-    <row r="404" ht="12.0" customHeight="1">
+    <row r="404" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G404" s="14"/>
       <c r="H404" s="14"/>
       <c r="I404" s="14"/>
     </row>
-    <row r="405" ht="12.0" customHeight="1">
+    <row r="405" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G405" s="14"/>
       <c r="H405" s="14"/>
       <c r="I405" s="14"/>
     </row>
-    <row r="406" ht="12.0" customHeight="1">
+    <row r="406" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G406" s="14"/>
       <c r="H406" s="14"/>
       <c r="I406" s="14"/>
     </row>
-    <row r="407" ht="12.0" customHeight="1">
+    <row r="407" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G407" s="14"/>
       <c r="H407" s="14"/>
       <c r="I407" s="14"/>
     </row>
-    <row r="408" ht="12.0" customHeight="1">
+    <row r="408" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G408" s="14"/>
       <c r="H408" s="14"/>
       <c r="I408" s="14"/>
     </row>
-    <row r="409" ht="12.0" customHeight="1">
+    <row r="409" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G409" s="14"/>
       <c r="H409" s="14"/>
       <c r="I409" s="14"/>
     </row>
-    <row r="410" ht="12.0" customHeight="1">
+    <row r="410" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G410" s="14"/>
       <c r="H410" s="14"/>
       <c r="I410" s="14"/>
     </row>
-    <row r="411" ht="12.0" customHeight="1">
+    <row r="411" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G411" s="14"/>
       <c r="H411" s="14"/>
       <c r="I411" s="14"/>
     </row>
-    <row r="412" ht="12.0" customHeight="1">
+    <row r="412" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G412" s="14"/>
       <c r="H412" s="14"/>
       <c r="I412" s="14"/>
     </row>
-    <row r="413" ht="12.0" customHeight="1">
+    <row r="413" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G413" s="14"/>
       <c r="H413" s="14"/>
       <c r="I413" s="14"/>
     </row>
-    <row r="414" ht="12.0" customHeight="1">
+    <row r="414" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G414" s="14"/>
       <c r="H414" s="14"/>
       <c r="I414" s="14"/>
     </row>
-    <row r="415" ht="12.0" customHeight="1">
+    <row r="415" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G415" s="14"/>
       <c r="H415" s="14"/>
       <c r="I415" s="14"/>
     </row>
-    <row r="416" ht="12.0" customHeight="1">
+    <row r="416" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G416" s="14"/>
       <c r="H416" s="14"/>
       <c r="I416" s="14"/>
     </row>
-    <row r="417" ht="12.0" customHeight="1">
+    <row r="417" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G417" s="14"/>
       <c r="H417" s="14"/>
       <c r="I417" s="14"/>
     </row>
-    <row r="418" ht="12.0" customHeight="1">
+    <row r="418" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G418" s="14"/>
       <c r="H418" s="14"/>
       <c r="I418" s="14"/>
     </row>
-    <row r="419" ht="12.0" customHeight="1">
+    <row r="419" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G419" s="14"/>
       <c r="H419" s="14"/>
       <c r="I419" s="14"/>
     </row>
-    <row r="420" ht="12.0" customHeight="1">
+    <row r="420" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G420" s="14"/>
       <c r="H420" s="14"/>
       <c r="I420" s="14"/>
     </row>
-    <row r="421" ht="12.0" customHeight="1">
+    <row r="421" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G421" s="14"/>
       <c r="H421" s="14"/>
       <c r="I421" s="14"/>
     </row>
-    <row r="422" ht="12.0" customHeight="1">
+    <row r="422" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G422" s="14"/>
       <c r="H422" s="14"/>
       <c r="I422" s="14"/>
     </row>
-    <row r="423" ht="12.0" customHeight="1">
+    <row r="423" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G423" s="14"/>
       <c r="H423" s="14"/>
       <c r="I423" s="14"/>
     </row>
-    <row r="424" ht="12.0" customHeight="1">
+    <row r="424" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G424" s="14"/>
       <c r="H424" s="14"/>
       <c r="I424" s="14"/>
     </row>
-    <row r="425" ht="12.0" customHeight="1">
+    <row r="425" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G425" s="14"/>
       <c r="H425" s="14"/>
       <c r="I425" s="14"/>
     </row>
-    <row r="426" ht="12.0" customHeight="1">
+    <row r="426" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G426" s="14"/>
       <c r="H426" s="14"/>
       <c r="I426" s="14"/>
     </row>
-    <row r="427" ht="12.0" customHeight="1">
+    <row r="427" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G427" s="14"/>
       <c r="H427" s="14"/>
       <c r="I427" s="14"/>
     </row>
-    <row r="428" ht="12.0" customHeight="1">
+    <row r="428" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G428" s="14"/>
       <c r="H428" s="14"/>
       <c r="I428" s="14"/>
     </row>
-    <row r="429" ht="12.0" customHeight="1">
+    <row r="429" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G429" s="14"/>
       <c r="H429" s="14"/>
       <c r="I429" s="14"/>
     </row>
-    <row r="430" ht="12.0" customHeight="1">
+    <row r="430" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G430" s="14"/>
       <c r="H430" s="14"/>
       <c r="I430" s="14"/>
     </row>
-    <row r="431" ht="12.0" customHeight="1">
+    <row r="431" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G431" s="14"/>
       <c r="H431" s="14"/>
       <c r="I431" s="14"/>
     </row>
-    <row r="432" ht="12.0" customHeight="1">
+    <row r="432" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G432" s="14"/>
       <c r="H432" s="14"/>
       <c r="I432" s="14"/>
     </row>
-    <row r="433" ht="12.0" customHeight="1">
+    <row r="433" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G433" s="14"/>
       <c r="H433" s="14"/>
       <c r="I433" s="14"/>
     </row>
-    <row r="434" ht="12.0" customHeight="1">
+    <row r="434" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G434" s="14"/>
       <c r="H434" s="14"/>
       <c r="I434" s="14"/>
     </row>
-    <row r="435" ht="12.0" customHeight="1">
+    <row r="435" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G435" s="14"/>
       <c r="H435" s="14"/>
       <c r="I435" s="14"/>
     </row>
-    <row r="436" ht="12.0" customHeight="1">
+    <row r="436" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G436" s="14"/>
       <c r="H436" s="14"/>
       <c r="I436" s="14"/>
     </row>
-    <row r="437" ht="12.0" customHeight="1">
+    <row r="437" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G437" s="14"/>
       <c r="H437" s="14"/>
       <c r="I437" s="14"/>
     </row>
-    <row r="438" ht="12.0" customHeight="1">
+    <row r="438" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G438" s="14"/>
       <c r="H438" s="14"/>
       <c r="I438" s="14"/>
     </row>
-    <row r="439" ht="12.0" customHeight="1">
+    <row r="439" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G439" s="14"/>
       <c r="H439" s="14"/>
       <c r="I439" s="14"/>
     </row>
-    <row r="440" ht="12.0" customHeight="1">
+    <row r="440" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G440" s="14"/>
       <c r="H440" s="14"/>
       <c r="I440" s="14"/>
     </row>
-    <row r="441" ht="12.0" customHeight="1">
+    <row r="441" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G441" s="14"/>
       <c r="H441" s="14"/>
       <c r="I441" s="14"/>
     </row>
-    <row r="442" ht="12.0" customHeight="1">
+    <row r="442" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G442" s="14"/>
       <c r="H442" s="14"/>
       <c r="I442" s="14"/>
     </row>
-    <row r="443" ht="12.0" customHeight="1">
+    <row r="443" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G443" s="14"/>
       <c r="H443" s="14"/>
       <c r="I443" s="14"/>
     </row>
-    <row r="444" ht="12.0" customHeight="1">
+    <row r="444" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G444" s="14"/>
       <c r="H444" s="14"/>
       <c r="I444" s="14"/>
     </row>
-    <row r="445" ht="12.0" customHeight="1">
+    <row r="445" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G445" s="14"/>
       <c r="H445" s="14"/>
       <c r="I445" s="14"/>
     </row>
-    <row r="446" ht="12.0" customHeight="1">
+    <row r="446" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G446" s="14"/>
       <c r="H446" s="14"/>
       <c r="I446" s="14"/>
     </row>
-    <row r="447" ht="12.0" customHeight="1">
+    <row r="447" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G447" s="14"/>
       <c r="H447" s="14"/>
       <c r="I447" s="14"/>
     </row>
-    <row r="448" ht="12.0" customHeight="1">
+    <row r="448" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G448" s="14"/>
       <c r="H448" s="14"/>
       <c r="I448" s="14"/>
     </row>
-    <row r="449" ht="12.0" customHeight="1">
+    <row r="449" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G449" s="14"/>
       <c r="H449" s="14"/>
       <c r="I449" s="14"/>
     </row>
-    <row r="450" ht="12.0" customHeight="1">
+    <row r="450" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G450" s="14"/>
       <c r="H450" s="14"/>
       <c r="I450" s="14"/>
     </row>
-    <row r="451" ht="12.0" customHeight="1">
+    <row r="451" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G451" s="14"/>
       <c r="H451" s="14"/>
       <c r="I451" s="14"/>
     </row>
-    <row r="452" ht="12.0" customHeight="1">
+    <row r="452" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G452" s="14"/>
       <c r="H452" s="14"/>
       <c r="I452" s="14"/>
     </row>
-    <row r="453" ht="12.0" customHeight="1">
+    <row r="453" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G453" s="14"/>
       <c r="H453" s="14"/>
       <c r="I453" s="14"/>
     </row>
-    <row r="454" ht="12.0" customHeight="1">
+    <row r="454" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G454" s="14"/>
       <c r="H454" s="14"/>
       <c r="I454" s="14"/>
     </row>
-    <row r="455" ht="12.0" customHeight="1">
+    <row r="455" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G455" s="14"/>
       <c r="H455" s="14"/>
       <c r="I455" s="14"/>
     </row>
-    <row r="456" ht="12.0" customHeight="1">
+    <row r="456" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G456" s="14"/>
       <c r="H456" s="14"/>
       <c r="I456" s="14"/>
     </row>
-    <row r="457" ht="12.0" customHeight="1">
+    <row r="457" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G457" s="14"/>
       <c r="H457" s="14"/>
       <c r="I457" s="14"/>
     </row>
-    <row r="458" ht="12.0" customHeight="1">
+    <row r="458" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G458" s="14"/>
       <c r="H458" s="14"/>
       <c r="I458" s="14"/>
     </row>
-    <row r="459" ht="12.0" customHeight="1">
+    <row r="459" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G459" s="14"/>
       <c r="H459" s="14"/>
       <c r="I459" s="14"/>
     </row>
-    <row r="460" ht="12.0" customHeight="1">
+    <row r="460" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G460" s="14"/>
       <c r="H460" s="14"/>
       <c r="I460" s="14"/>
     </row>
-    <row r="461" ht="12.0" customHeight="1">
+    <row r="461" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G461" s="14"/>
       <c r="H461" s="14"/>
       <c r="I461" s="14"/>
     </row>
-    <row r="462" ht="12.0" customHeight="1">
+    <row r="462" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G462" s="14"/>
       <c r="H462" s="14"/>
       <c r="I462" s="14"/>
     </row>
-    <row r="463" ht="12.0" customHeight="1">
+    <row r="463" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G463" s="14"/>
       <c r="H463" s="14"/>
       <c r="I463" s="14"/>
     </row>
-    <row r="464" ht="12.0" customHeight="1">
+    <row r="464" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G464" s="14"/>
       <c r="H464" s="14"/>
       <c r="I464" s="14"/>
     </row>
-    <row r="465" ht="12.0" customHeight="1">
+    <row r="465" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G465" s="14"/>
       <c r="H465" s="14"/>
       <c r="I465" s="14"/>
     </row>
-    <row r="466" ht="12.0" customHeight="1">
+    <row r="466" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G466" s="14"/>
       <c r="H466" s="14"/>
       <c r="I466" s="14"/>
     </row>
-    <row r="467" ht="12.0" customHeight="1">
+    <row r="467" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G467" s="14"/>
       <c r="H467" s="14"/>
       <c r="I467" s="14"/>
     </row>
-    <row r="468" ht="12.0" customHeight="1">
+    <row r="468" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G468" s="14"/>
       <c r="H468" s="14"/>
       <c r="I468" s="14"/>
     </row>
-    <row r="469" ht="12.0" customHeight="1">
+    <row r="469" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G469" s="14"/>
       <c r="H469" s="14"/>
       <c r="I469" s="14"/>
     </row>
-    <row r="470" ht="12.0" customHeight="1">
+    <row r="470" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G470" s="14"/>
       <c r="H470" s="14"/>
       <c r="I470" s="14"/>
     </row>
-    <row r="471" ht="12.0" customHeight="1">
+    <row r="471" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G471" s="14"/>
       <c r="H471" s="14"/>
       <c r="I471" s="14"/>
     </row>
-    <row r="472" ht="12.0" customHeight="1">
+    <row r="472" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G472" s="14"/>
       <c r="H472" s="14"/>
       <c r="I472" s="14"/>
     </row>
-    <row r="473" ht="12.0" customHeight="1">
+    <row r="473" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G473" s="14"/>
       <c r="H473" s="14"/>
       <c r="I473" s="14"/>
     </row>
-    <row r="474" ht="12.0" customHeight="1">
+    <row r="474" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G474" s="14"/>
       <c r="H474" s="14"/>
       <c r="I474" s="14"/>
     </row>
-    <row r="475" ht="12.0" customHeight="1">
+    <row r="475" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G475" s="14"/>
       <c r="H475" s="14"/>
       <c r="I475" s="14"/>
     </row>
-    <row r="476" ht="12.0" customHeight="1">
+    <row r="476" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G476" s="14"/>
       <c r="H476" s="14"/>
       <c r="I476" s="14"/>
     </row>
-    <row r="477" ht="12.0" customHeight="1">
+    <row r="477" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G477" s="14"/>
       <c r="H477" s="14"/>
       <c r="I477" s="14"/>
     </row>
-    <row r="478" ht="12.0" customHeight="1">
+    <row r="478" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G478" s="14"/>
       <c r="H478" s="14"/>
       <c r="I478" s="14"/>
     </row>
-    <row r="479" ht="12.0" customHeight="1">
+    <row r="479" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G479" s="14"/>
       <c r="H479" s="14"/>
       <c r="I479" s="14"/>
     </row>
-    <row r="480" ht="12.0" customHeight="1">
+    <row r="480" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G480" s="14"/>
       <c r="H480" s="14"/>
       <c r="I480" s="14"/>
     </row>
-    <row r="481" ht="12.0" customHeight="1">
+    <row r="481" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G481" s="14"/>
       <c r="H481" s="14"/>
       <c r="I481" s="14"/>
     </row>
-    <row r="482" ht="12.0" customHeight="1">
+    <row r="482" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G482" s="14"/>
       <c r="H482" s="14"/>
       <c r="I482" s="14"/>
     </row>
-    <row r="483" ht="12.0" customHeight="1">
+    <row r="483" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G483" s="14"/>
       <c r="H483" s="14"/>
       <c r="I483" s="14"/>
     </row>
-    <row r="484" ht="12.0" customHeight="1">
+    <row r="484" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G484" s="14"/>
       <c r="H484" s="14"/>
       <c r="I484" s="14"/>
     </row>
-    <row r="485" ht="12.0" customHeight="1">
+    <row r="485" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G485" s="14"/>
       <c r="H485" s="14"/>
       <c r="I485" s="14"/>
     </row>
-    <row r="486" ht="12.0" customHeight="1">
+    <row r="486" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G486" s="14"/>
       <c r="H486" s="14"/>
       <c r="I486" s="14"/>
     </row>
-    <row r="487" ht="12.0" customHeight="1">
+    <row r="487" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G487" s="14"/>
       <c r="H487" s="14"/>
       <c r="I487" s="14"/>
     </row>
-    <row r="488" ht="12.0" customHeight="1">
+    <row r="488" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G488" s="14"/>
       <c r="H488" s="14"/>
       <c r="I488" s="14"/>
     </row>
-    <row r="489" ht="12.0" customHeight="1">
+    <row r="489" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G489" s="14"/>
       <c r="H489" s="14"/>
       <c r="I489" s="14"/>
     </row>
-    <row r="490" ht="12.0" customHeight="1">
+    <row r="490" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G490" s="14"/>
       <c r="H490" s="14"/>
       <c r="I490" s="14"/>
     </row>
-    <row r="491" ht="12.0" customHeight="1">
+    <row r="491" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G491" s="14"/>
       <c r="H491" s="14"/>
       <c r="I491" s="14"/>
     </row>
-    <row r="492" ht="12.0" customHeight="1">
+    <row r="492" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G492" s="14"/>
       <c r="H492" s="14"/>
       <c r="I492" s="14"/>
     </row>
-    <row r="493" ht="12.0" customHeight="1">
+    <row r="493" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G493" s="14"/>
       <c r="H493" s="14"/>
       <c r="I493" s="14"/>
     </row>
-    <row r="494" ht="12.0" customHeight="1">
+    <row r="494" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G494" s="14"/>
       <c r="H494" s="14"/>
       <c r="I494" s="14"/>
     </row>
-    <row r="495" ht="12.0" customHeight="1">
+    <row r="495" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G495" s="14"/>
       <c r="H495" s="14"/>
       <c r="I495" s="14"/>
     </row>
-    <row r="496" ht="12.0" customHeight="1">
+    <row r="496" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G496" s="14"/>
       <c r="H496" s="14"/>
       <c r="I496" s="14"/>
     </row>
-    <row r="497" ht="12.0" customHeight="1">
+    <row r="497" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G497" s="14"/>
       <c r="H497" s="14"/>
       <c r="I497" s="14"/>
     </row>
-    <row r="498" ht="12.0" customHeight="1">
+    <row r="498" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G498" s="14"/>
       <c r="H498" s="14"/>
       <c r="I498" s="14"/>
     </row>
-    <row r="499" ht="12.0" customHeight="1">
+    <row r="499" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G499" s="14"/>
       <c r="H499" s="14"/>
       <c r="I499" s="14"/>
     </row>
-    <row r="500" ht="12.0" customHeight="1">
+    <row r="500" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G500" s="14"/>
       <c r="H500" s="14"/>
       <c r="I500" s="14"/>
     </row>
-    <row r="501" ht="12.0" customHeight="1">
+    <row r="501" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G501" s="14"/>
       <c r="H501" s="14"/>
       <c r="I501" s="14"/>
     </row>
-    <row r="502" ht="12.0" customHeight="1">
+    <row r="502" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G502" s="14"/>
       <c r="H502" s="14"/>
       <c r="I502" s="14"/>
     </row>
-    <row r="503" ht="12.0" customHeight="1">
+    <row r="503" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G503" s="14"/>
       <c r="H503" s="14"/>
       <c r="I503" s="14"/>
     </row>
-    <row r="504" ht="12.0" customHeight="1">
+    <row r="504" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G504" s="14"/>
       <c r="H504" s="14"/>
       <c r="I504" s="14"/>
     </row>
-    <row r="505" ht="12.0" customHeight="1">
+    <row r="505" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G505" s="14"/>
       <c r="H505" s="14"/>
       <c r="I505" s="14"/>
     </row>
-    <row r="506" ht="12.0" customHeight="1">
+    <row r="506" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G506" s="14"/>
       <c r="H506" s="14"/>
       <c r="I506" s="14"/>
     </row>
-    <row r="507" ht="12.0" customHeight="1">
+    <row r="507" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G507" s="14"/>
       <c r="H507" s="14"/>
       <c r="I507" s="14"/>
     </row>
-    <row r="508" ht="12.0" customHeight="1">
+    <row r="508" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G508" s="14"/>
       <c r="H508" s="14"/>
       <c r="I508" s="14"/>
     </row>
-    <row r="509" ht="12.0" customHeight="1">
+    <row r="509" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G509" s="14"/>
       <c r="H509" s="14"/>
       <c r="I509" s="14"/>
     </row>
-    <row r="510" ht="12.0" customHeight="1">
+    <row r="510" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G510" s="14"/>
       <c r="H510" s="14"/>
       <c r="I510" s="14"/>
     </row>
-    <row r="511" ht="12.0" customHeight="1">
+    <row r="511" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G511" s="14"/>
       <c r="H511" s="14"/>
       <c r="I511" s="14"/>
     </row>
-    <row r="512" ht="12.0" customHeight="1">
+    <row r="512" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G512" s="14"/>
       <c r="H512" s="14"/>
       <c r="I512" s="14"/>
     </row>
-    <row r="513" ht="12.0" customHeight="1">
+    <row r="513" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G513" s="14"/>
       <c r="H513" s="14"/>
       <c r="I513" s="14"/>
     </row>
-    <row r="514" ht="12.0" customHeight="1">
+    <row r="514" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G514" s="14"/>
       <c r="H514" s="14"/>
       <c r="I514" s="14"/>
     </row>
-    <row r="515" ht="12.0" customHeight="1">
+    <row r="515" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G515" s="14"/>
       <c r="H515" s="14"/>
       <c r="I515" s="14"/>
     </row>
-    <row r="516" ht="12.0" customHeight="1">
+    <row r="516" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G516" s="14"/>
       <c r="H516" s="14"/>
       <c r="I516" s="14"/>
     </row>
-    <row r="517" ht="12.0" customHeight="1">
+    <row r="517" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G517" s="14"/>
       <c r="H517" s="14"/>
       <c r="I517" s="14"/>
     </row>
-    <row r="518" ht="12.0" customHeight="1">
+    <row r="518" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G518" s="14"/>
       <c r="H518" s="14"/>
       <c r="I518" s="14"/>
     </row>
-    <row r="519" ht="12.0" customHeight="1">
+    <row r="519" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G519" s="14"/>
       <c r="H519" s="14"/>
       <c r="I519" s="14"/>
     </row>
-    <row r="520" ht="12.0" customHeight="1">
+    <row r="520" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G520" s="14"/>
       <c r="H520" s="14"/>
       <c r="I520" s="14"/>
     </row>
-    <row r="521" ht="12.0" customHeight="1">
+    <row r="521" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G521" s="14"/>
       <c r="H521" s="14"/>
       <c r="I521" s="14"/>
     </row>
-    <row r="522" ht="12.0" customHeight="1">
+    <row r="522" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G522" s="14"/>
       <c r="H522" s="14"/>
       <c r="I522" s="14"/>
     </row>
-    <row r="523" ht="12.0" customHeight="1">
+    <row r="523" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G523" s="14"/>
       <c r="H523" s="14"/>
       <c r="I523" s="14"/>
     </row>
-    <row r="524" ht="12.0" customHeight="1">
+    <row r="524" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G524" s="14"/>
       <c r="H524" s="14"/>
       <c r="I524" s="14"/>
     </row>
-    <row r="525" ht="12.0" customHeight="1">
+    <row r="525" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G525" s="14"/>
       <c r="H525" s="14"/>
       <c r="I525" s="14"/>
     </row>
-    <row r="526" ht="12.0" customHeight="1">
+    <row r="526" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G526" s="14"/>
       <c r="H526" s="14"/>
       <c r="I526" s="14"/>
     </row>
-    <row r="527" ht="12.0" customHeight="1">
+    <row r="527" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G527" s="14"/>
       <c r="H527" s="14"/>
       <c r="I527" s="14"/>
     </row>
-    <row r="528" ht="12.0" customHeight="1">
+    <row r="528" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G528" s="14"/>
       <c r="H528" s="14"/>
       <c r="I528" s="14"/>
     </row>
-    <row r="529" ht="12.0" customHeight="1">
+    <row r="529" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G529" s="14"/>
       <c r="H529" s="14"/>
       <c r="I529" s="14"/>
     </row>
-    <row r="530" ht="12.0" customHeight="1">
+    <row r="530" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G530" s="14"/>
       <c r="H530" s="14"/>
       <c r="I530" s="14"/>
     </row>
-    <row r="531" ht="12.0" customHeight="1">
+    <row r="531" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G531" s="14"/>
       <c r="H531" s="14"/>
       <c r="I531" s="14"/>
     </row>
-    <row r="532" ht="12.0" customHeight="1">
+    <row r="532" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G532" s="14"/>
       <c r="H532" s="14"/>
       <c r="I532" s="14"/>
     </row>
-    <row r="533" ht="12.0" customHeight="1">
+    <row r="533" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G533" s="14"/>
       <c r="H533" s="14"/>
       <c r="I533" s="14"/>
     </row>
-    <row r="534" ht="12.0" customHeight="1">
+    <row r="534" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G534" s="14"/>
       <c r="H534" s="14"/>
       <c r="I534" s="14"/>
     </row>
-    <row r="535" ht="12.0" customHeight="1">
+    <row r="535" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G535" s="14"/>
       <c r="H535" s="14"/>
       <c r="I535" s="14"/>
     </row>
-    <row r="536" ht="12.0" customHeight="1">
+    <row r="536" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G536" s="14"/>
       <c r="H536" s="14"/>
       <c r="I536" s="14"/>
     </row>
-    <row r="537" ht="12.0" customHeight="1">
+    <row r="537" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G537" s="14"/>
       <c r="H537" s="14"/>
       <c r="I537" s="14"/>
     </row>
-    <row r="538" ht="12.0" customHeight="1">
+    <row r="538" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G538" s="14"/>
       <c r="H538" s="14"/>
       <c r="I538" s="14"/>
     </row>
-    <row r="539" ht="12.0" customHeight="1">
+    <row r="539" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G539" s="14"/>
       <c r="H539" s="14"/>
       <c r="I539" s="14"/>
     </row>
-    <row r="540" ht="12.0" customHeight="1">
+    <row r="540" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G540" s="14"/>
       <c r="H540" s="14"/>
       <c r="I540" s="14"/>
     </row>
-    <row r="541" ht="12.0" customHeight="1">
+    <row r="541" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G541" s="14"/>
       <c r="H541" s="14"/>
       <c r="I541" s="14"/>
     </row>
-    <row r="542" ht="12.0" customHeight="1">
+    <row r="542" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G542" s="14"/>
       <c r="H542" s="14"/>
       <c r="I542" s="14"/>
     </row>
-    <row r="543" ht="12.0" customHeight="1">
+    <row r="543" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G543" s="14"/>
       <c r="H543" s="14"/>
       <c r="I543" s="14"/>
     </row>
-    <row r="544" ht="12.0" customHeight="1">
+    <row r="544" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G544" s="14"/>
       <c r="H544" s="14"/>
       <c r="I544" s="14"/>
     </row>
-    <row r="545" ht="12.0" customHeight="1">
+    <row r="545" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G545" s="14"/>
       <c r="H545" s="14"/>
       <c r="I545" s="14"/>
     </row>
-    <row r="546" ht="12.0" customHeight="1">
+    <row r="546" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G546" s="14"/>
       <c r="H546" s="14"/>
       <c r="I546" s="14"/>
     </row>
-    <row r="547" ht="12.0" customHeight="1">
+    <row r="547" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G547" s="14"/>
       <c r="H547" s="14"/>
       <c r="I547" s="14"/>
     </row>
-    <row r="548" ht="12.0" customHeight="1">
+    <row r="548" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G548" s="14"/>
       <c r="H548" s="14"/>
       <c r="I548" s="14"/>
     </row>
-    <row r="549" ht="12.0" customHeight="1">
+    <row r="549" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G549" s="14"/>
       <c r="H549" s="14"/>
       <c r="I549" s="14"/>
     </row>
-    <row r="550" ht="12.0" customHeight="1">
+    <row r="550" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G550" s="14"/>
       <c r="H550" s="14"/>
       <c r="I550" s="14"/>
     </row>
-    <row r="551" ht="12.0" customHeight="1">
+    <row r="551" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G551" s="14"/>
       <c r="H551" s="14"/>
       <c r="I551" s="14"/>
     </row>
-    <row r="552" ht="12.0" customHeight="1">
+    <row r="552" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G552" s="14"/>
       <c r="H552" s="14"/>
       <c r="I552" s="14"/>
     </row>
-    <row r="553" ht="12.0" customHeight="1">
+    <row r="553" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G553" s="14"/>
       <c r="H553" s="14"/>
       <c r="I553" s="14"/>
     </row>
-    <row r="554" ht="12.0" customHeight="1">
+    <row r="554" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G554" s="14"/>
       <c r="H554" s="14"/>
       <c r="I554" s="14"/>
     </row>
-    <row r="555" ht="12.0" customHeight="1">
+    <row r="555" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G555" s="14"/>
       <c r="H555" s="14"/>
       <c r="I555" s="14"/>
     </row>
-    <row r="556" ht="12.0" customHeight="1">
+    <row r="556" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G556" s="14"/>
       <c r="H556" s="14"/>
       <c r="I556" s="14"/>
     </row>
-    <row r="557" ht="12.0" customHeight="1">
+    <row r="557" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G557" s="14"/>
       <c r="H557" s="14"/>
       <c r="I557" s="14"/>
     </row>
-    <row r="558" ht="12.0" customHeight="1">
+    <row r="558" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G558" s="14"/>
       <c r="H558" s="14"/>
       <c r="I558" s="14"/>
     </row>
-    <row r="559" ht="12.0" customHeight="1">
+    <row r="559" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G559" s="14"/>
       <c r="H559" s="14"/>
       <c r="I559" s="14"/>
     </row>
-    <row r="560" ht="12.0" customHeight="1">
+    <row r="560" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G560" s="14"/>
       <c r="H560" s="14"/>
       <c r="I560" s="14"/>
     </row>
-    <row r="561" ht="12.0" customHeight="1">
+    <row r="561" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G561" s="14"/>
       <c r="H561" s="14"/>
       <c r="I561" s="14"/>
     </row>
-    <row r="562" ht="12.0" customHeight="1">
+    <row r="562" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G562" s="14"/>
       <c r="H562" s="14"/>
       <c r="I562" s="14"/>
     </row>
-    <row r="563" ht="12.0" customHeight="1">
+    <row r="563" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G563" s="14"/>
       <c r="H563" s="14"/>
       <c r="I563" s="14"/>
     </row>
-    <row r="564" ht="12.0" customHeight="1">
+    <row r="564" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G564" s="14"/>
       <c r="H564" s="14"/>
       <c r="I564" s="14"/>
     </row>
-    <row r="565" ht="12.0" customHeight="1">
+    <row r="565" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G565" s="14"/>
       <c r="H565" s="14"/>
       <c r="I565" s="14"/>
     </row>
-    <row r="566" ht="12.0" customHeight="1">
+    <row r="566" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G566" s="14"/>
       <c r="H566" s="14"/>
       <c r="I566" s="14"/>
     </row>
-    <row r="567" ht="12.0" customHeight="1">
+    <row r="567" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G567" s="14"/>
       <c r="H567" s="14"/>
       <c r="I567" s="14"/>
     </row>
-    <row r="568" ht="12.0" customHeight="1">
+    <row r="568" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G568" s="14"/>
       <c r="H568" s="14"/>
       <c r="I568" s="14"/>
     </row>
-    <row r="569" ht="12.0" customHeight="1">
+    <row r="569" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G569" s="14"/>
       <c r="H569" s="14"/>
       <c r="I569" s="14"/>
     </row>
-    <row r="570" ht="12.0" customHeight="1">
+    <row r="570" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G570" s="14"/>
       <c r="H570" s="14"/>
       <c r="I570" s="14"/>
     </row>
-    <row r="571" ht="12.0" customHeight="1">
+    <row r="571" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G571" s="14"/>
       <c r="H571" s="14"/>
       <c r="I571" s="14"/>
     </row>
-    <row r="572" ht="12.0" customHeight="1">
+    <row r="572" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G572" s="14"/>
       <c r="H572" s="14"/>
       <c r="I572" s="14"/>
     </row>
-    <row r="573" ht="12.0" customHeight="1">
+    <row r="573" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G573" s="14"/>
       <c r="H573" s="14"/>
       <c r="I573" s="14"/>
     </row>
-    <row r="574" ht="12.0" customHeight="1">
+    <row r="574" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G574" s="14"/>
       <c r="H574" s="14"/>
       <c r="I574" s="14"/>
     </row>
-    <row r="575" ht="12.0" customHeight="1">
+    <row r="575" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G575" s="14"/>
       <c r="H575" s="14"/>
       <c r="I575" s="14"/>
     </row>
-    <row r="576" ht="12.0" customHeight="1">
+    <row r="576" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G576" s="14"/>
       <c r="H576" s="14"/>
       <c r="I576" s="14"/>
     </row>
-    <row r="577" ht="12.0" customHeight="1">
+    <row r="577" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G577" s="14"/>
       <c r="H577" s="14"/>
       <c r="I577" s="14"/>
     </row>
-    <row r="578" ht="12.0" customHeight="1">
+    <row r="578" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G578" s="14"/>
       <c r="H578" s="14"/>
       <c r="I578" s="14"/>
     </row>
-    <row r="579" ht="12.0" customHeight="1">
+    <row r="579" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G579" s="14"/>
       <c r="H579" s="14"/>
       <c r="I579" s="14"/>
     </row>
-    <row r="580" ht="12.0" customHeight="1">
+    <row r="580" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G580" s="14"/>
       <c r="H580" s="14"/>
       <c r="I580" s="14"/>
     </row>
-    <row r="581" ht="12.0" customHeight="1">
+    <row r="581" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G581" s="14"/>
       <c r="H581" s="14"/>
       <c r="I581" s="14"/>
     </row>
-    <row r="582" ht="12.0" customHeight="1">
+    <row r="582" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G582" s="14"/>
       <c r="H582" s="14"/>
       <c r="I582" s="14"/>
     </row>
-    <row r="583" ht="12.0" customHeight="1">
+    <row r="583" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G583" s="14"/>
       <c r="H583" s="14"/>
       <c r="I583" s="14"/>
     </row>
-    <row r="584" ht="12.0" customHeight="1">
+    <row r="584" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G584" s="14"/>
       <c r="H584" s="14"/>
       <c r="I584" s="14"/>
     </row>
-    <row r="585" ht="12.0" customHeight="1">
+    <row r="585" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G585" s="14"/>
       <c r="H585" s="14"/>
       <c r="I585" s="14"/>
     </row>
-    <row r="586" ht="12.0" customHeight="1">
+    <row r="586" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G586" s="14"/>
       <c r="H586" s="14"/>
       <c r="I586" s="14"/>
     </row>
-    <row r="587" ht="12.0" customHeight="1">
+    <row r="587" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G587" s="14"/>
       <c r="H587" s="14"/>
       <c r="I587" s="14"/>
     </row>
-    <row r="588" ht="12.0" customHeight="1">
+    <row r="588" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G588" s="14"/>
       <c r="H588" s="14"/>
       <c r="I588" s="14"/>
     </row>
-    <row r="589" ht="12.0" customHeight="1">
+    <row r="589" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G589" s="14"/>
       <c r="H589" s="14"/>
       <c r="I589" s="14"/>
     </row>
-    <row r="590" ht="12.0" customHeight="1">
+    <row r="590" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G590" s="14"/>
       <c r="H590" s="14"/>
       <c r="I590" s="14"/>
     </row>
-    <row r="591" ht="12.0" customHeight="1">
+    <row r="591" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G591" s="14"/>
       <c r="H591" s="14"/>
       <c r="I591" s="14"/>
     </row>
-    <row r="592" ht="12.0" customHeight="1">
+    <row r="592" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G592" s="14"/>
       <c r="H592" s="14"/>
       <c r="I592" s="14"/>
     </row>
-    <row r="593" ht="12.0" customHeight="1">
+    <row r="593" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G593" s="14"/>
       <c r="H593" s="14"/>
       <c r="I593" s="14"/>
     </row>
-    <row r="594" ht="12.0" customHeight="1">
+    <row r="594" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G594" s="14"/>
       <c r="H594" s="14"/>
       <c r="I594" s="14"/>
     </row>
-    <row r="595" ht="12.0" customHeight="1">
+    <row r="595" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G595" s="14"/>
       <c r="H595" s="14"/>
       <c r="I595" s="14"/>
     </row>
-    <row r="596" ht="12.0" customHeight="1">
+    <row r="596" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G596" s="14"/>
       <c r="H596" s="14"/>
       <c r="I596" s="14"/>
     </row>
-    <row r="597" ht="12.0" customHeight="1">
+    <row r="597" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G597" s="14"/>
       <c r="H597" s="14"/>
       <c r="I597" s="14"/>
     </row>
-    <row r="598" ht="12.0" customHeight="1">
+    <row r="598" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G598" s="14"/>
       <c r="H598" s="14"/>
       <c r="I598" s="14"/>
     </row>
-    <row r="599" ht="12.0" customHeight="1">
+    <row r="599" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G599" s="14"/>
       <c r="H599" s="14"/>
       <c r="I599" s="14"/>
     </row>
-    <row r="600" ht="12.0" customHeight="1">
+    <row r="600" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G600" s="14"/>
       <c r="H600" s="14"/>
       <c r="I600" s="14"/>
     </row>
-    <row r="601" ht="12.0" customHeight="1">
+    <row r="601" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G601" s="14"/>
       <c r="H601" s="14"/>
       <c r="I601" s="14"/>
     </row>
-    <row r="602" ht="12.0" customHeight="1">
+    <row r="602" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G602" s="14"/>
       <c r="H602" s="14"/>
       <c r="I602" s="14"/>
     </row>
-    <row r="603" ht="12.0" customHeight="1">
+    <row r="603" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G603" s="14"/>
       <c r="H603" s="14"/>
       <c r="I603" s="14"/>
     </row>
-    <row r="604" ht="12.0" customHeight="1">
+    <row r="604" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G604" s="14"/>
       <c r="H604" s="14"/>
       <c r="I604" s="14"/>
     </row>
-    <row r="605" ht="12.0" customHeight="1">
+    <row r="605" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G605" s="14"/>
       <c r="H605" s="14"/>
       <c r="I605" s="14"/>
     </row>
-    <row r="606" ht="12.0" customHeight="1">
+    <row r="606" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G606" s="14"/>
       <c r="H606" s="14"/>
       <c r="I606" s="14"/>
     </row>
-    <row r="607" ht="12.0" customHeight="1">
+    <row r="607" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G607" s="14"/>
       <c r="H607" s="14"/>
       <c r="I607" s="14"/>
     </row>
-    <row r="608" ht="12.0" customHeight="1">
+    <row r="608" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G608" s="14"/>
       <c r="H608" s="14"/>
       <c r="I608" s="14"/>
     </row>
-    <row r="609" ht="12.0" customHeight="1">
+    <row r="609" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G609" s="14"/>
       <c r="H609" s="14"/>
       <c r="I609" s="14"/>
     </row>
-    <row r="610" ht="12.0" customHeight="1">
+    <row r="610" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G610" s="14"/>
       <c r="H610" s="14"/>
       <c r="I610" s="14"/>
     </row>
-    <row r="611" ht="12.0" customHeight="1">
+    <row r="611" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G611" s="14"/>
       <c r="H611" s="14"/>
       <c r="I611" s="14"/>
     </row>
-    <row r="612" ht="12.0" customHeight="1">
+    <row r="612" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G612" s="14"/>
       <c r="H612" s="14"/>
       <c r="I612" s="14"/>
     </row>
-    <row r="613" ht="12.0" customHeight="1">
+    <row r="613" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G613" s="14"/>
       <c r="H613" s="14"/>
       <c r="I613" s="14"/>
     </row>
-    <row r="614" ht="12.0" customHeight="1">
+    <row r="614" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G614" s="14"/>
       <c r="H614" s="14"/>
       <c r="I614" s="14"/>
     </row>
-    <row r="615" ht="12.0" customHeight="1">
+    <row r="615" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G615" s="14"/>
       <c r="H615" s="14"/>
       <c r="I615" s="14"/>
     </row>
-    <row r="616" ht="12.0" customHeight="1">
+    <row r="616" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G616" s="14"/>
       <c r="H616" s="14"/>
       <c r="I616" s="14"/>
     </row>
-    <row r="617" ht="12.0" customHeight="1">
+    <row r="617" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G617" s="14"/>
       <c r="H617" s="14"/>
       <c r="I617" s="14"/>
     </row>
-    <row r="618" ht="12.0" customHeight="1">
+    <row r="618" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G618" s="14"/>
       <c r="H618" s="14"/>
       <c r="I618" s="14"/>
     </row>
-    <row r="619" ht="12.0" customHeight="1">
+    <row r="619" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G619" s="14"/>
       <c r="H619" s="14"/>
       <c r="I619" s="14"/>
     </row>
-    <row r="620" ht="12.0" customHeight="1">
+    <row r="620" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G620" s="14"/>
       <c r="H620" s="14"/>
       <c r="I620" s="14"/>
     </row>
-    <row r="621" ht="12.0" customHeight="1">
+    <row r="621" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G621" s="14"/>
       <c r="H621" s="14"/>
       <c r="I621" s="14"/>
     </row>
-    <row r="622" ht="12.0" customHeight="1">
+    <row r="622" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G622" s="14"/>
       <c r="H622" s="14"/>
       <c r="I622" s="14"/>
     </row>
-    <row r="623" ht="12.0" customHeight="1">
+    <row r="623" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G623" s="14"/>
       <c r="H623" s="14"/>
       <c r="I623" s="14"/>
     </row>
-    <row r="624" ht="12.0" customHeight="1">
+    <row r="624" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G624" s="14"/>
       <c r="H624" s="14"/>
       <c r="I624" s="14"/>
     </row>
-    <row r="625" ht="12.0" customHeight="1">
+    <row r="625" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G625" s="14"/>
       <c r="H625" s="14"/>
       <c r="I625" s="14"/>
     </row>
-    <row r="626" ht="12.0" customHeight="1">
+    <row r="626" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G626" s="14"/>
       <c r="H626" s="14"/>
       <c r="I626" s="14"/>
     </row>
-    <row r="627" ht="12.0" customHeight="1">
+    <row r="627" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G627" s="14"/>
       <c r="H627" s="14"/>
       <c r="I627" s="14"/>
     </row>
-    <row r="628" ht="12.0" customHeight="1">
+    <row r="628" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G628" s="14"/>
       <c r="H628" s="14"/>
       <c r="I628" s="14"/>
     </row>
-    <row r="629" ht="12.0" customHeight="1">
+    <row r="629" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G629" s="14"/>
       <c r="H629" s="14"/>
       <c r="I629" s="14"/>
     </row>
-    <row r="630" ht="12.0" customHeight="1">
+    <row r="630" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G630" s="14"/>
       <c r="H630" s="14"/>
       <c r="I630" s="14"/>
     </row>
-    <row r="631" ht="12.0" customHeight="1">
+    <row r="631" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G631" s="14"/>
       <c r="H631" s="14"/>
       <c r="I631" s="14"/>
     </row>
-    <row r="632" ht="12.0" customHeight="1">
+    <row r="632" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G632" s="14"/>
       <c r="H632" s="14"/>
       <c r="I632" s="14"/>
     </row>
-    <row r="633" ht="12.0" customHeight="1">
+    <row r="633" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G633" s="14"/>
       <c r="H633" s="14"/>
       <c r="I633" s="14"/>
     </row>
-    <row r="634" ht="12.0" customHeight="1">
+    <row r="634" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G634" s="14"/>
       <c r="H634" s="14"/>
       <c r="I634" s="14"/>
     </row>
-    <row r="635" ht="12.0" customHeight="1">
+    <row r="635" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G635" s="14"/>
       <c r="H635" s="14"/>
       <c r="I635" s="14"/>
     </row>
-    <row r="636" ht="12.0" customHeight="1">
+    <row r="636" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G636" s="14"/>
       <c r="H636" s="14"/>
       <c r="I636" s="14"/>
     </row>
-    <row r="637" ht="12.0" customHeight="1">
+    <row r="637" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G637" s="14"/>
       <c r="H637" s="14"/>
       <c r="I637" s="14"/>
     </row>
-    <row r="638" ht="12.0" customHeight="1">
+    <row r="638" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G638" s="14"/>
       <c r="H638" s="14"/>
       <c r="I638" s="14"/>
     </row>
-    <row r="639" ht="12.0" customHeight="1">
+    <row r="639" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G639" s="14"/>
       <c r="H639" s="14"/>
       <c r="I639" s="14"/>
     </row>
-    <row r="640" ht="12.0" customHeight="1">
+    <row r="640" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G640" s="14"/>
       <c r="H640" s="14"/>
       <c r="I640" s="14"/>
     </row>
-    <row r="641" ht="12.0" customHeight="1">
+    <row r="641" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G641" s="14"/>
       <c r="H641" s="14"/>
       <c r="I641" s="14"/>
     </row>
-    <row r="642" ht="12.0" customHeight="1">
+    <row r="642" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G642" s="14"/>
       <c r="H642" s="14"/>
       <c r="I642" s="14"/>
     </row>
-    <row r="643" ht="12.0" customHeight="1">
+    <row r="643" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G643" s="14"/>
       <c r="H643" s="14"/>
       <c r="I643" s="14"/>
     </row>
-    <row r="644" ht="12.0" customHeight="1">
+    <row r="644" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G644" s="14"/>
       <c r="H644" s="14"/>
       <c r="I644" s="14"/>
     </row>
-    <row r="645" ht="12.0" customHeight="1">
+    <row r="645" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G645" s="14"/>
       <c r="H645" s="14"/>
       <c r="I645" s="14"/>
     </row>
-    <row r="646" ht="12.0" customHeight="1">
+    <row r="646" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G646" s="14"/>
       <c r="H646" s="14"/>
       <c r="I646" s="14"/>
     </row>
-    <row r="647" ht="12.0" customHeight="1">
+    <row r="647" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G647" s="14"/>
       <c r="H647" s="14"/>
       <c r="I647" s="14"/>
     </row>
-    <row r="648" ht="12.0" customHeight="1">
+    <row r="648" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G648" s="14"/>
       <c r="H648" s="14"/>
       <c r="I648" s="14"/>
     </row>
-    <row r="649" ht="12.0" customHeight="1">
+    <row r="649" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G649" s="14"/>
       <c r="H649" s="14"/>
       <c r="I649" s="14"/>
     </row>
-    <row r="650" ht="12.0" customHeight="1">
+    <row r="650" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G650" s="14"/>
       <c r="H650" s="14"/>
       <c r="I650" s="14"/>
     </row>
-    <row r="651" ht="12.0" customHeight="1">
+    <row r="651" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G651" s="14"/>
       <c r="H651" s="14"/>
       <c r="I651" s="14"/>
     </row>
-    <row r="652" ht="12.0" customHeight="1">
+    <row r="652" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G652" s="14"/>
       <c r="H652" s="14"/>
       <c r="I652" s="14"/>
     </row>
-    <row r="653" ht="12.0" customHeight="1">
+    <row r="653" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G653" s="14"/>
       <c r="H653" s="14"/>
       <c r="I653" s="14"/>
     </row>
-    <row r="654" ht="12.0" customHeight="1">
+    <row r="654" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G654" s="14"/>
       <c r="H654" s="14"/>
       <c r="I654" s="14"/>
     </row>
-    <row r="655" ht="12.0" customHeight="1">
+    <row r="655" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G655" s="14"/>
       <c r="H655" s="14"/>
       <c r="I655" s="14"/>
     </row>
-    <row r="656" ht="12.0" customHeight="1">
+    <row r="656" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G656" s="14"/>
       <c r="H656" s="14"/>
       <c r="I656" s="14"/>
     </row>
-    <row r="657" ht="12.0" customHeight="1">
+    <row r="657" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G657" s="14"/>
       <c r="H657" s="14"/>
       <c r="I657" s="14"/>
     </row>
-    <row r="658" ht="12.0" customHeight="1">
+    <row r="658" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G658" s="14"/>
       <c r="H658" s="14"/>
       <c r="I658" s="14"/>
     </row>
-    <row r="659" ht="12.0" customHeight="1">
+    <row r="659" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G659" s="14"/>
       <c r="H659" s="14"/>
       <c r="I659" s="14"/>
     </row>
-    <row r="660" ht="12.0" customHeight="1">
+    <row r="660" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G660" s="14"/>
       <c r="H660" s="14"/>
       <c r="I660" s="14"/>
     </row>
-    <row r="661" ht="12.0" customHeight="1">
+    <row r="661" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G661" s="14"/>
       <c r="H661" s="14"/>
       <c r="I661" s="14"/>
     </row>
-    <row r="662" ht="12.0" customHeight="1">
+    <row r="662" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G662" s="14"/>
       <c r="H662" s="14"/>
       <c r="I662" s="14"/>
     </row>
-    <row r="663" ht="12.0" customHeight="1">
+    <row r="663" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G663" s="14"/>
       <c r="H663" s="14"/>
       <c r="I663" s="14"/>
     </row>
-    <row r="664" ht="12.0" customHeight="1">
+    <row r="664" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G664" s="14"/>
       <c r="H664" s="14"/>
       <c r="I664" s="14"/>
     </row>
-    <row r="665" ht="12.0" customHeight="1">
+    <row r="665" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G665" s="14"/>
       <c r="H665" s="14"/>
       <c r="I665" s="14"/>
     </row>
-    <row r="666" ht="12.0" customHeight="1">
+    <row r="666" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G666" s="14"/>
       <c r="H666" s="14"/>
       <c r="I666" s="14"/>
     </row>
-    <row r="667" ht="12.0" customHeight="1">
+    <row r="667" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G667" s="14"/>
       <c r="H667" s="14"/>
       <c r="I667" s="14"/>
     </row>
-    <row r="668" ht="12.0" customHeight="1">
+    <row r="668" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G668" s="14"/>
       <c r="H668" s="14"/>
       <c r="I668" s="14"/>
     </row>
-    <row r="669" ht="12.0" customHeight="1">
+    <row r="669" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G669" s="14"/>
       <c r="H669" s="14"/>
       <c r="I669" s="14"/>
     </row>
-    <row r="670" ht="12.0" customHeight="1">
+    <row r="670" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G670" s="14"/>
       <c r="H670" s="14"/>
       <c r="I670" s="14"/>
     </row>
-    <row r="671" ht="12.0" customHeight="1">
+    <row r="671" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G671" s="14"/>
       <c r="H671" s="14"/>
       <c r="I671" s="14"/>
     </row>
-    <row r="672" ht="12.0" customHeight="1">
+    <row r="672" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G672" s="14"/>
       <c r="H672" s="14"/>
       <c r="I672" s="14"/>
     </row>
-    <row r="673" ht="12.0" customHeight="1">
+    <row r="673" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G673" s="14"/>
       <c r="H673" s="14"/>
       <c r="I673" s="14"/>
     </row>
-    <row r="674" ht="12.0" customHeight="1">
+    <row r="674" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G674" s="14"/>
       <c r="H674" s="14"/>
       <c r="I674" s="14"/>
     </row>
-    <row r="675" ht="12.0" customHeight="1">
+    <row r="675" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G675" s="14"/>
       <c r="H675" s="14"/>
       <c r="I675" s="14"/>
     </row>
-    <row r="676" ht="12.0" customHeight="1">
+    <row r="676" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G676" s="14"/>
       <c r="H676" s="14"/>
       <c r="I676" s="14"/>
     </row>
-    <row r="677" ht="12.0" customHeight="1">
+    <row r="677" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G677" s="14"/>
       <c r="H677" s="14"/>
       <c r="I677" s="14"/>
     </row>
-    <row r="678" ht="12.0" customHeight="1">
+    <row r="678" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G678" s="14"/>
       <c r="H678" s="14"/>
       <c r="I678" s="14"/>
     </row>
-    <row r="679" ht="12.0" customHeight="1">
+    <row r="679" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G679" s="14"/>
       <c r="H679" s="14"/>
       <c r="I679" s="14"/>
     </row>
-    <row r="680" ht="12.0" customHeight="1">
+    <row r="680" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G680" s="14"/>
       <c r="H680" s="14"/>
       <c r="I680" s="14"/>
     </row>
-    <row r="681" ht="12.0" customHeight="1">
+    <row r="681" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G681" s="14"/>
       <c r="H681" s="14"/>
       <c r="I681" s="14"/>
     </row>
-    <row r="682" ht="12.0" customHeight="1">
+    <row r="682" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G682" s="14"/>
       <c r="H682" s="14"/>
       <c r="I682" s="14"/>
     </row>
-    <row r="683" ht="12.0" customHeight="1">
+    <row r="683" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G683" s="14"/>
       <c r="H683" s="14"/>
       <c r="I683" s="14"/>
     </row>
-    <row r="684" ht="12.0" customHeight="1">
+    <row r="684" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G684" s="14"/>
       <c r="H684" s="14"/>
       <c r="I684" s="14"/>
     </row>
-    <row r="685" ht="12.0" customHeight="1">
+    <row r="685" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G685" s="14"/>
       <c r="H685" s="14"/>
       <c r="I685" s="14"/>
     </row>
-    <row r="686" ht="12.0" customHeight="1">
+    <row r="686" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G686" s="14"/>
       <c r="H686" s="14"/>
       <c r="I686" s="14"/>
     </row>
-    <row r="687" ht="12.0" customHeight="1">
+    <row r="687" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G687" s="14"/>
       <c r="H687" s="14"/>
       <c r="I687" s="14"/>
     </row>
-    <row r="688" ht="12.0" customHeight="1">
+    <row r="688" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G688" s="14"/>
       <c r="H688" s="14"/>
       <c r="I688" s="14"/>
     </row>
-    <row r="689" ht="12.0" customHeight="1">
+    <row r="689" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G689" s="14"/>
       <c r="H689" s="14"/>
       <c r="I689" s="14"/>
     </row>
-    <row r="690" ht="12.0" customHeight="1">
+    <row r="690" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G690" s="14"/>
       <c r="H690" s="14"/>
       <c r="I690" s="14"/>
     </row>
-    <row r="691" ht="12.0" customHeight="1">
+    <row r="691" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G691" s="14"/>
       <c r="H691" s="14"/>
       <c r="I691" s="14"/>
     </row>
-    <row r="692" ht="12.0" customHeight="1">
+    <row r="692" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G692" s="14"/>
       <c r="H692" s="14"/>
       <c r="I692" s="14"/>
     </row>
-    <row r="693" ht="12.0" customHeight="1">
+    <row r="693" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G693" s="14"/>
       <c r="H693" s="14"/>
       <c r="I693" s="14"/>
     </row>
-    <row r="694" ht="12.0" customHeight="1">
+    <row r="694" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G694" s="14"/>
       <c r="H694" s="14"/>
       <c r="I694" s="14"/>
     </row>
-    <row r="695" ht="12.0" customHeight="1">
+    <row r="695" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G695" s="14"/>
       <c r="H695" s="14"/>
       <c r="I695" s="14"/>
     </row>
-    <row r="696" ht="12.0" customHeight="1">
+    <row r="696" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G696" s="14"/>
       <c r="H696" s="14"/>
       <c r="I696" s="14"/>
     </row>
-    <row r="697" ht="12.0" customHeight="1">
+    <row r="697" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G697" s="14"/>
       <c r="H697" s="14"/>
       <c r="I697" s="14"/>
     </row>
-    <row r="698" ht="12.0" customHeight="1">
+    <row r="698" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G698" s="14"/>
       <c r="H698" s="14"/>
       <c r="I698" s="14"/>
     </row>
-    <row r="699" ht="12.0" customHeight="1">
+    <row r="699" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G699" s="14"/>
       <c r="H699" s="14"/>
       <c r="I699" s="14"/>
     </row>
-    <row r="700" ht="12.0" customHeight="1">
+    <row r="700" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G700" s="14"/>
       <c r="H700" s="14"/>
       <c r="I700" s="14"/>
     </row>
-    <row r="701" ht="12.0" customHeight="1">
+    <row r="701" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G701" s="14"/>
       <c r="H701" s="14"/>
       <c r="I701" s="14"/>
     </row>
-    <row r="702" ht="12.0" customHeight="1">
+    <row r="702" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G702" s="14"/>
       <c r="H702" s="14"/>
       <c r="I702" s="14"/>
     </row>
-    <row r="703" ht="12.0" customHeight="1">
+    <row r="703" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G703" s="14"/>
       <c r="H703" s="14"/>
       <c r="I703" s="14"/>
     </row>
-    <row r="704" ht="12.0" customHeight="1">
+    <row r="704" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G704" s="14"/>
       <c r="H704" s="14"/>
       <c r="I704" s="14"/>
     </row>
-    <row r="705" ht="12.0" customHeight="1">
+    <row r="705" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G705" s="14"/>
       <c r="H705" s="14"/>
       <c r="I705" s="14"/>
     </row>
-    <row r="706" ht="12.0" customHeight="1">
+    <row r="706" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G706" s="14"/>
       <c r="H706" s="14"/>
       <c r="I706" s="14"/>
     </row>
-    <row r="707" ht="12.0" customHeight="1">
+    <row r="707" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G707" s="14"/>
       <c r="H707" s="14"/>
       <c r="I707" s="14"/>
     </row>
-    <row r="708" ht="12.0" customHeight="1">
+    <row r="708" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G708" s="14"/>
       <c r="H708" s="14"/>
       <c r="I708" s="14"/>
     </row>
-    <row r="709" ht="12.0" customHeight="1">
+    <row r="709" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G709" s="14"/>
       <c r="H709" s="14"/>
       <c r="I709" s="14"/>
     </row>
-    <row r="710" ht="12.0" customHeight="1">
+    <row r="710" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G710" s="14"/>
       <c r="H710" s="14"/>
       <c r="I710" s="14"/>
     </row>
-    <row r="711" ht="12.0" customHeight="1">
+    <row r="711" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G711" s="14"/>
       <c r="H711" s="14"/>
       <c r="I711" s="14"/>
     </row>
-    <row r="712" ht="12.0" customHeight="1">
+    <row r="712" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G712" s="14"/>
       <c r="H712" s="14"/>
       <c r="I712" s="14"/>
     </row>
-    <row r="713" ht="12.0" customHeight="1">
+    <row r="713" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G713" s="14"/>
       <c r="H713" s="14"/>
       <c r="I713" s="14"/>
     </row>
-    <row r="714" ht="12.0" customHeight="1">
+    <row r="714" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G714" s="14"/>
       <c r="H714" s="14"/>
       <c r="I714" s="14"/>
     </row>
-    <row r="715" ht="12.0" customHeight="1">
+    <row r="715" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G715" s="14"/>
       <c r="H715" s="14"/>
       <c r="I715" s="14"/>
     </row>
-    <row r="716" ht="12.0" customHeight="1">
+    <row r="716" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G716" s="14"/>
       <c r="H716" s="14"/>
       <c r="I716" s="14"/>
     </row>
-    <row r="717" ht="12.0" customHeight="1">
+    <row r="717" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G717" s="14"/>
       <c r="H717" s="14"/>
       <c r="I717" s="14"/>
     </row>
-    <row r="718" ht="12.0" customHeight="1">
+    <row r="718" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G718" s="14"/>
       <c r="H718" s="14"/>
       <c r="I718" s="14"/>
     </row>
-    <row r="719" ht="12.0" customHeight="1">
+    <row r="719" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G719" s="14"/>
       <c r="H719" s="14"/>
       <c r="I719" s="14"/>
     </row>
-    <row r="720" ht="12.0" customHeight="1">
+    <row r="720" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G720" s="14"/>
       <c r="H720" s="14"/>
       <c r="I720" s="14"/>
     </row>
-    <row r="721" ht="12.0" customHeight="1">
+    <row r="721" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G721" s="14"/>
       <c r="H721" s="14"/>
       <c r="I721" s="14"/>
     </row>
-    <row r="722" ht="12.0" customHeight="1">
+    <row r="722" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G722" s="14"/>
       <c r="H722" s="14"/>
       <c r="I722" s="14"/>
     </row>
-    <row r="723" ht="12.0" customHeight="1">
+    <row r="723" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G723" s="14"/>
       <c r="H723" s="14"/>
       <c r="I723" s="14"/>
     </row>
-    <row r="724" ht="12.0" customHeight="1">
+    <row r="724" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G724" s="14"/>
       <c r="H724" s="14"/>
       <c r="I724" s="14"/>
     </row>
-    <row r="725" ht="12.0" customHeight="1">
+    <row r="725" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G725" s="14"/>
       <c r="H725" s="14"/>
       <c r="I725" s="14"/>
     </row>
-    <row r="726" ht="12.0" customHeight="1">
+    <row r="726" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G726" s="14"/>
       <c r="H726" s="14"/>
       <c r="I726" s="14"/>
     </row>
-    <row r="727" ht="12.0" customHeight="1">
+    <row r="727" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G727" s="14"/>
       <c r="H727" s="14"/>
       <c r="I727" s="14"/>
     </row>
-    <row r="728" ht="12.0" customHeight="1">
+    <row r="728" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G728" s="14"/>
       <c r="H728" s="14"/>
       <c r="I728" s="14"/>
     </row>
-    <row r="729" ht="12.0" customHeight="1">
+    <row r="729" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G729" s="14"/>
       <c r="H729" s="14"/>
       <c r="I729" s="14"/>
     </row>
-    <row r="730" ht="12.0" customHeight="1">
+    <row r="730" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G730" s="14"/>
       <c r="H730" s="14"/>
       <c r="I730" s="14"/>
     </row>
-    <row r="731" ht="12.0" customHeight="1">
+    <row r="731" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G731" s="14"/>
       <c r="H731" s="14"/>
       <c r="I731" s="14"/>
     </row>
-    <row r="732" ht="12.0" customHeight="1">
+    <row r="732" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G732" s="14"/>
       <c r="H732" s="14"/>
       <c r="I732" s="14"/>
     </row>
-    <row r="733" ht="12.0" customHeight="1">
+    <row r="733" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G733" s="14"/>
       <c r="H733" s="14"/>
       <c r="I733" s="14"/>
     </row>
-    <row r="734" ht="12.0" customHeight="1">
+    <row r="734" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G734" s="14"/>
       <c r="H734" s="14"/>
       <c r="I734" s="14"/>
     </row>
-    <row r="735" ht="12.0" customHeight="1">
+    <row r="735" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G735" s="14"/>
       <c r="H735" s="14"/>
       <c r="I735" s="14"/>
     </row>
-    <row r="736" ht="12.0" customHeight="1">
+    <row r="736" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G736" s="14"/>
       <c r="H736" s="14"/>
       <c r="I736" s="14"/>
     </row>
-    <row r="737" ht="12.0" customHeight="1">
+    <row r="737" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G737" s="14"/>
       <c r="H737" s="14"/>
       <c r="I737" s="14"/>
     </row>
-    <row r="738" ht="12.0" customHeight="1">
+    <row r="738" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G738" s="14"/>
       <c r="H738" s="14"/>
       <c r="I738" s="14"/>
     </row>
-    <row r="739" ht="12.0" customHeight="1">
+    <row r="739" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G739" s="14"/>
       <c r="H739" s="14"/>
       <c r="I739" s="14"/>
     </row>
-    <row r="740" ht="12.0" customHeight="1">
+    <row r="740" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G740" s="14"/>
       <c r="H740" s="14"/>
       <c r="I740" s="14"/>
     </row>
-    <row r="741" ht="12.0" customHeight="1">
+    <row r="741" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G741" s="14"/>
       <c r="H741" s="14"/>
       <c r="I741" s="14"/>
     </row>
-    <row r="742" ht="12.0" customHeight="1">
+    <row r="742" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G742" s="14"/>
       <c r="H742" s="14"/>
       <c r="I742" s="14"/>
     </row>
-    <row r="743" ht="12.0" customHeight="1">
+    <row r="743" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G743" s="14"/>
       <c r="H743" s="14"/>
       <c r="I743" s="14"/>
     </row>
-    <row r="744" ht="12.0" customHeight="1">
+    <row r="744" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G744" s="14"/>
       <c r="H744" s="14"/>
       <c r="I744" s="14"/>
     </row>
-    <row r="745" ht="12.0" customHeight="1">
+    <row r="745" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G745" s="14"/>
       <c r="H745" s="14"/>
       <c r="I745" s="14"/>
     </row>
-    <row r="746" ht="12.0" customHeight="1">
+    <row r="746" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G746" s="14"/>
       <c r="H746" s="14"/>
       <c r="I746" s="14"/>
     </row>
-    <row r="747" ht="12.0" customHeight="1">
+    <row r="747" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G747" s="14"/>
       <c r="H747" s="14"/>
       <c r="I747" s="14"/>
     </row>
-    <row r="748" ht="12.0" customHeight="1">
+    <row r="748" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G748" s="14"/>
       <c r="H748" s="14"/>
       <c r="I748" s="14"/>
     </row>
-    <row r="749" ht="12.0" customHeight="1">
+    <row r="749" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G749" s="14"/>
       <c r="H749" s="14"/>
       <c r="I749" s="14"/>
     </row>
-    <row r="750" ht="12.0" customHeight="1">
+    <row r="750" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G750" s="14"/>
       <c r="H750" s="14"/>
       <c r="I750" s="14"/>
     </row>
-    <row r="751" ht="12.0" customHeight="1">
+    <row r="751" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G751" s="14"/>
       <c r="H751" s="14"/>
       <c r="I751" s="14"/>
     </row>
-    <row r="752" ht="12.0" customHeight="1">
+    <row r="752" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G752" s="14"/>
       <c r="H752" s="14"/>
       <c r="I752" s="14"/>
     </row>
-    <row r="753" ht="12.0" customHeight="1">
+    <row r="753" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G753" s="14"/>
       <c r="H753" s="14"/>
       <c r="I753" s="14"/>
     </row>
-    <row r="754" ht="12.0" customHeight="1">
+    <row r="754" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G754" s="14"/>
       <c r="H754" s="14"/>
       <c r="I754" s="14"/>
     </row>
-    <row r="755" ht="12.0" customHeight="1">
+    <row r="755" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G755" s="14"/>
       <c r="H755" s="14"/>
       <c r="I755" s="14"/>
     </row>
-    <row r="756" ht="12.0" customHeight="1">
+    <row r="756" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G756" s="14"/>
       <c r="H756" s="14"/>
       <c r="I756" s="14"/>
     </row>
-    <row r="757" ht="12.0" customHeight="1">
+    <row r="757" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G757" s="14"/>
       <c r="H757" s="14"/>
       <c r="I757" s="14"/>
     </row>
-    <row r="758" ht="12.0" customHeight="1">
+    <row r="758" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G758" s="14"/>
       <c r="H758" s="14"/>
       <c r="I758" s="14"/>
     </row>
-    <row r="759" ht="12.0" customHeight="1">
+    <row r="759" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G759" s="14"/>
       <c r="H759" s="14"/>
       <c r="I759" s="14"/>
     </row>
-    <row r="760" ht="12.0" customHeight="1">
+    <row r="760" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G760" s="14"/>
       <c r="H760" s="14"/>
       <c r="I760" s="14"/>
     </row>
-    <row r="761" ht="12.0" customHeight="1">
+    <row r="761" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G761" s="14"/>
       <c r="H761" s="14"/>
       <c r="I761" s="14"/>
     </row>
-    <row r="762" ht="12.0" customHeight="1">
+    <row r="762" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G762" s="14"/>
       <c r="H762" s="14"/>
       <c r="I762" s="14"/>
     </row>
-    <row r="763" ht="12.0" customHeight="1">
+    <row r="763" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G763" s="14"/>
       <c r="H763" s="14"/>
       <c r="I763" s="14"/>
     </row>
-    <row r="764" ht="12.0" customHeight="1">
+    <row r="764" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G764" s="14"/>
       <c r="H764" s="14"/>
       <c r="I764" s="14"/>
     </row>
-    <row r="765" ht="12.0" customHeight="1">
+    <row r="765" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G765" s="14"/>
       <c r="H765" s="14"/>
       <c r="I765" s="14"/>
     </row>
-    <row r="766" ht="12.0" customHeight="1">
+    <row r="766" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G766" s="14"/>
       <c r="H766" s="14"/>
       <c r="I766" s="14"/>
     </row>
-    <row r="767" ht="12.0" customHeight="1">
+    <row r="767" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G767" s="14"/>
       <c r="H767" s="14"/>
       <c r="I767" s="14"/>
     </row>
-    <row r="768" ht="12.0" customHeight="1">
+    <row r="768" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G768" s="14"/>
       <c r="H768" s="14"/>
       <c r="I768" s="14"/>
     </row>
-    <row r="769" ht="12.0" customHeight="1">
+    <row r="769" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G769" s="14"/>
       <c r="H769" s="14"/>
       <c r="I769" s="14"/>
     </row>
-    <row r="770" ht="12.0" customHeight="1">
+    <row r="770" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G770" s="14"/>
       <c r="H770" s="14"/>
       <c r="I770" s="14"/>
     </row>
-    <row r="771" ht="12.0" customHeight="1">
+    <row r="771" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G771" s="14"/>
       <c r="H771" s="14"/>
       <c r="I771" s="14"/>
     </row>
-    <row r="772" ht="12.0" customHeight="1">
+    <row r="772" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G772" s="14"/>
       <c r="H772" s="14"/>
       <c r="I772" s="14"/>
     </row>
-    <row r="773" ht="12.0" customHeight="1">
+    <row r="773" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G773" s="14"/>
       <c r="H773" s="14"/>
       <c r="I773" s="14"/>
     </row>
-    <row r="774" ht="12.0" customHeight="1">
+    <row r="774" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G774" s="14"/>
       <c r="H774" s="14"/>
       <c r="I774" s="14"/>
     </row>
-    <row r="775" ht="12.0" customHeight="1">
+    <row r="775" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G775" s="14"/>
       <c r="H775" s="14"/>
       <c r="I775" s="14"/>
     </row>
-    <row r="776" ht="12.0" customHeight="1">
+    <row r="776" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G776" s="14"/>
       <c r="H776" s="14"/>
       <c r="I776" s="14"/>
     </row>
-    <row r="777" ht="12.0" customHeight="1">
+    <row r="777" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G777" s="14"/>
       <c r="H777" s="14"/>
       <c r="I777" s="14"/>
     </row>
-    <row r="778" ht="12.0" customHeight="1">
+    <row r="778" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G778" s="14"/>
       <c r="H778" s="14"/>
       <c r="I778" s="14"/>
     </row>
-    <row r="779" ht="12.0" customHeight="1">
+    <row r="779" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G779" s="14"/>
       <c r="H779" s="14"/>
       <c r="I779" s="14"/>
     </row>
-    <row r="780" ht="12.0" customHeight="1">
+    <row r="780" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G780" s="14"/>
       <c r="H780" s="14"/>
       <c r="I780" s="14"/>
     </row>
-    <row r="781" ht="12.0" customHeight="1">
+    <row r="781" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G781" s="14"/>
       <c r="H781" s="14"/>
       <c r="I781" s="14"/>
     </row>
-    <row r="782" ht="12.0" customHeight="1">
+    <row r="782" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G782" s="14"/>
       <c r="H782" s="14"/>
       <c r="I782" s="14"/>
     </row>
-    <row r="783" ht="12.0" customHeight="1">
+    <row r="783" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G783" s="14"/>
       <c r="H783" s="14"/>
       <c r="I783" s="14"/>
     </row>
-    <row r="784" ht="12.0" customHeight="1">
+    <row r="784" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G784" s="14"/>
       <c r="H784" s="14"/>
       <c r="I784" s="14"/>
     </row>
-    <row r="785" ht="12.0" customHeight="1">
+    <row r="785" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G785" s="14"/>
       <c r="H785" s="14"/>
       <c r="I785" s="14"/>
     </row>
-    <row r="786" ht="12.0" customHeight="1">
+    <row r="786" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G786" s="14"/>
       <c r="H786" s="14"/>
       <c r="I786" s="14"/>
     </row>
-    <row r="787" ht="12.0" customHeight="1">
+    <row r="787" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G787" s="14"/>
       <c r="H787" s="14"/>
       <c r="I787" s="14"/>
     </row>
-    <row r="788" ht="12.0" customHeight="1">
+    <row r="788" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G788" s="14"/>
       <c r="H788" s="14"/>
       <c r="I788" s="14"/>
     </row>
-    <row r="789" ht="12.0" customHeight="1">
+    <row r="789" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G789" s="14"/>
       <c r="H789" s="14"/>
       <c r="I789" s="14"/>
     </row>
-    <row r="790" ht="12.0" customHeight="1">
+    <row r="790" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G790" s="14"/>
       <c r="H790" s="14"/>
       <c r="I790" s="14"/>
     </row>
-    <row r="791" ht="12.0" customHeight="1">
+    <row r="791" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G791" s="14"/>
       <c r="H791" s="14"/>
       <c r="I791" s="14"/>
     </row>
-    <row r="792" ht="12.0" customHeight="1">
+    <row r="792" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G792" s="14"/>
       <c r="H792" s="14"/>
       <c r="I792" s="14"/>
     </row>
-    <row r="793" ht="12.0" customHeight="1">
+    <row r="793" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G793" s="14"/>
       <c r="H793" s="14"/>
       <c r="I793" s="14"/>
     </row>
-    <row r="794" ht="12.0" customHeight="1">
+    <row r="794" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G794" s="14"/>
       <c r="H794" s="14"/>
       <c r="I794" s="14"/>
     </row>
-    <row r="795" ht="12.0" customHeight="1">
+    <row r="795" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G795" s="14"/>
       <c r="H795" s="14"/>
       <c r="I795" s="14"/>
     </row>
-    <row r="796" ht="12.0" customHeight="1">
+    <row r="796" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G796" s="14"/>
       <c r="H796" s="14"/>
       <c r="I796" s="14"/>
     </row>
-    <row r="797" ht="12.0" customHeight="1">
+    <row r="797" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G797" s="14"/>
       <c r="H797" s="14"/>
       <c r="I797" s="14"/>
     </row>
-    <row r="798" ht="12.0" customHeight="1">
+    <row r="798" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G798" s="14"/>
       <c r="H798" s="14"/>
       <c r="I798" s="14"/>
     </row>
-    <row r="799" ht="12.0" customHeight="1">
+    <row r="799" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G799" s="14"/>
       <c r="H799" s="14"/>
       <c r="I799" s="14"/>
     </row>
-    <row r="800" ht="12.0" customHeight="1">
+    <row r="800" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G800" s="14"/>
       <c r="H800" s="14"/>
       <c r="I800" s="14"/>
     </row>
-    <row r="801" ht="12.0" customHeight="1">
+    <row r="801" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G801" s="14"/>
       <c r="H801" s="14"/>
       <c r="I801" s="14"/>
     </row>
-    <row r="802" ht="12.0" customHeight="1">
+    <row r="802" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G802" s="14"/>
       <c r="H802" s="14"/>
       <c r="I802" s="14"/>
     </row>
-    <row r="803" ht="12.0" customHeight="1">
+    <row r="803" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G803" s="14"/>
       <c r="H803" s="14"/>
       <c r="I803" s="14"/>
     </row>
-    <row r="804" ht="12.0" customHeight="1">
+    <row r="804" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G804" s="14"/>
       <c r="H804" s="14"/>
       <c r="I804" s="14"/>
     </row>
-    <row r="805" ht="12.0" customHeight="1">
+    <row r="805" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G805" s="14"/>
       <c r="H805" s="14"/>
       <c r="I805" s="14"/>
     </row>
-    <row r="806" ht="12.0" customHeight="1">
+    <row r="806" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G806" s="14"/>
       <c r="H806" s="14"/>
       <c r="I806" s="14"/>
     </row>
-    <row r="807" ht="12.0" customHeight="1">
+    <row r="807" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G807" s="14"/>
       <c r="H807" s="14"/>
       <c r="I807" s="14"/>
     </row>
-    <row r="808" ht="12.0" customHeight="1">
+    <row r="808" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G808" s="14"/>
       <c r="H808" s="14"/>
       <c r="I808" s="14"/>
     </row>
-    <row r="809" ht="12.0" customHeight="1">
+    <row r="809" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G809" s="14"/>
       <c r="H809" s="14"/>
       <c r="I809" s="14"/>
     </row>
-    <row r="810" ht="12.0" customHeight="1">
+    <row r="810" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G810" s="14"/>
       <c r="H810" s="14"/>
       <c r="I810" s="14"/>
     </row>
-    <row r="811" ht="12.0" customHeight="1">
+    <row r="811" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G811" s="14"/>
       <c r="H811" s="14"/>
       <c r="I811" s="14"/>
     </row>
-    <row r="812" ht="12.0" customHeight="1">
+    <row r="812" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G812" s="14"/>
       <c r="H812" s="14"/>
       <c r="I812" s="14"/>
     </row>
-    <row r="813" ht="12.0" customHeight="1">
+    <row r="813" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G813" s="14"/>
       <c r="H813" s="14"/>
       <c r="I813" s="14"/>
     </row>
-    <row r="814" ht="12.0" customHeight="1">
+    <row r="814" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G814" s="14"/>
       <c r="H814" s="14"/>
       <c r="I814" s="14"/>
     </row>
-    <row r="815" ht="12.0" customHeight="1">
+    <row r="815" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G815" s="14"/>
       <c r="H815" s="14"/>
       <c r="I815" s="14"/>
     </row>
-    <row r="816" ht="12.0" customHeight="1">
+    <row r="816" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G816" s="14"/>
       <c r="H816" s="14"/>
       <c r="I816" s="14"/>
     </row>
-    <row r="817" ht="12.0" customHeight="1">
+    <row r="817" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G817" s="14"/>
       <c r="H817" s="14"/>
       <c r="I817" s="14"/>
     </row>
-    <row r="818" ht="12.0" customHeight="1">
+    <row r="818" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G818" s="14"/>
       <c r="H818" s="14"/>
       <c r="I818" s="14"/>
     </row>
-    <row r="819" ht="12.0" customHeight="1">
+    <row r="819" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G819" s="14"/>
       <c r="H819" s="14"/>
       <c r="I819" s="14"/>
     </row>
-    <row r="820" ht="12.0" customHeight="1">
+    <row r="820" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G820" s="14"/>
       <c r="H820" s="14"/>
       <c r="I820" s="14"/>
     </row>
-    <row r="821" ht="12.0" customHeight="1">
+    <row r="821" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G821" s="14"/>
       <c r="H821" s="14"/>
       <c r="I821" s="14"/>
     </row>
-    <row r="822" ht="12.0" customHeight="1">
+    <row r="822" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G822" s="14"/>
       <c r="H822" s="14"/>
       <c r="I822" s="14"/>
     </row>
-    <row r="823" ht="12.0" customHeight="1">
+    <row r="823" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G823" s="14"/>
       <c r="H823" s="14"/>
       <c r="I823" s="14"/>
     </row>
-    <row r="824" ht="12.0" customHeight="1">
+    <row r="824" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G824" s="14"/>
       <c r="H824" s="14"/>
       <c r="I824" s="14"/>
     </row>
-    <row r="825" ht="12.0" customHeight="1">
+    <row r="825" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G825" s="14"/>
       <c r="H825" s="14"/>
       <c r="I825" s="14"/>
     </row>
-    <row r="826" ht="12.0" customHeight="1">
+    <row r="826" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G826" s="14"/>
       <c r="H826" s="14"/>
       <c r="I826" s="14"/>
     </row>
-    <row r="827" ht="12.0" customHeight="1">
+    <row r="827" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G827" s="14"/>
       <c r="H827" s="14"/>
       <c r="I827" s="14"/>
     </row>
-    <row r="828" ht="12.0" customHeight="1">
+    <row r="828" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G828" s="14"/>
       <c r="H828" s="14"/>
       <c r="I828" s="14"/>
     </row>
-    <row r="829" ht="12.0" customHeight="1">
+    <row r="829" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G829" s="14"/>
       <c r="H829" s="14"/>
       <c r="I829" s="14"/>
     </row>
-    <row r="830" ht="12.0" customHeight="1">
+    <row r="830" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G830" s="14"/>
       <c r="H830" s="14"/>
       <c r="I830" s="14"/>
     </row>
-    <row r="831" ht="12.0" customHeight="1">
+    <row r="831" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G831" s="14"/>
       <c r="H831" s="14"/>
       <c r="I831" s="14"/>
     </row>
-    <row r="832" ht="12.0" customHeight="1">
+    <row r="832" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G832" s="14"/>
       <c r="H832" s="14"/>
       <c r="I832" s="14"/>
     </row>
-    <row r="833" ht="12.0" customHeight="1">
+    <row r="833" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G833" s="14"/>
       <c r="H833" s="14"/>
       <c r="I833" s="14"/>
     </row>
-    <row r="834" ht="12.0" customHeight="1">
+    <row r="834" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G834" s="14"/>
       <c r="H834" s="14"/>
       <c r="I834" s="14"/>
     </row>
-    <row r="835" ht="12.0" customHeight="1">
+    <row r="835" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G835" s="14"/>
       <c r="H835" s="14"/>
       <c r="I835" s="14"/>
     </row>
-    <row r="836" ht="12.0" customHeight="1">
+    <row r="836" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G836" s="14"/>
       <c r="H836" s="14"/>
       <c r="I836" s="14"/>
     </row>
-    <row r="837" ht="12.0" customHeight="1">
+    <row r="837" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G837" s="14"/>
       <c r="H837" s="14"/>
       <c r="I837" s="14"/>
     </row>
-    <row r="838" ht="12.0" customHeight="1">
+    <row r="838" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G838" s="14"/>
       <c r="H838" s="14"/>
       <c r="I838" s="14"/>
     </row>
-    <row r="839" ht="12.0" customHeight="1">
+    <row r="839" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G839" s="14"/>
       <c r="H839" s="14"/>
       <c r="I839" s="14"/>
     </row>
-    <row r="840" ht="12.0" customHeight="1">
+    <row r="840" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G840" s="14"/>
       <c r="H840" s="14"/>
       <c r="I840" s="14"/>
     </row>
-    <row r="841" ht="12.0" customHeight="1">
+    <row r="841" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G841" s="14"/>
       <c r="H841" s="14"/>
       <c r="I841" s="14"/>
     </row>
-    <row r="842" ht="12.0" customHeight="1">
+    <row r="842" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G842" s="14"/>
       <c r="H842" s="14"/>
       <c r="I842" s="14"/>
     </row>
-    <row r="843" ht="12.0" customHeight="1">
+    <row r="843" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G843" s="14"/>
       <c r="H843" s="14"/>
       <c r="I843" s="14"/>
     </row>
-    <row r="844" ht="12.0" customHeight="1">
+    <row r="844" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G844" s="14"/>
       <c r="H844" s="14"/>
       <c r="I844" s="14"/>
     </row>
-    <row r="845" ht="12.0" customHeight="1">
+    <row r="845" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G845" s="14"/>
       <c r="H845" s="14"/>
       <c r="I845" s="14"/>
     </row>
-    <row r="846" ht="12.0" customHeight="1">
+    <row r="846" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G846" s="14"/>
       <c r="H846" s="14"/>
       <c r="I846" s="14"/>
     </row>
-    <row r="847" ht="12.0" customHeight="1">
+    <row r="847" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G847" s="14"/>
       <c r="H847" s="14"/>
       <c r="I847" s="14"/>
     </row>
-    <row r="848" ht="12.0" customHeight="1">
+    <row r="848" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G848" s="14"/>
       <c r="H848" s="14"/>
       <c r="I848" s="14"/>
     </row>
-    <row r="849" ht="12.0" customHeight="1">
+    <row r="849" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G849" s="14"/>
       <c r="H849" s="14"/>
       <c r="I849" s="14"/>
     </row>
-    <row r="850" ht="12.0" customHeight="1">
+    <row r="850" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G850" s="14"/>
       <c r="H850" s="14"/>
       <c r="I850" s="14"/>
     </row>
-    <row r="851" ht="12.0" customHeight="1">
+    <row r="851" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G851" s="14"/>
       <c r="H851" s="14"/>
       <c r="I851" s="14"/>
     </row>
-    <row r="852" ht="12.0" customHeight="1">
+    <row r="852" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G852" s="14"/>
       <c r="H852" s="14"/>
       <c r="I852" s="14"/>
     </row>
-    <row r="853" ht="12.0" customHeight="1">
+    <row r="853" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G853" s="14"/>
       <c r="H853" s="14"/>
       <c r="I853" s="14"/>
     </row>
-    <row r="854" ht="12.0" customHeight="1">
+    <row r="854" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G854" s="14"/>
       <c r="H854" s="14"/>
       <c r="I854" s="14"/>
     </row>
-    <row r="855" ht="12.0" customHeight="1">
+    <row r="855" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G855" s="14"/>
       <c r="H855" s="14"/>
       <c r="I855" s="14"/>
     </row>
-    <row r="856" ht="12.0" customHeight="1">
+    <row r="856" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G856" s="14"/>
       <c r="H856" s="14"/>
       <c r="I856" s="14"/>
     </row>
-    <row r="857" ht="12.0" customHeight="1">
+    <row r="857" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G857" s="14"/>
       <c r="H857" s="14"/>
       <c r="I857" s="14"/>
     </row>
-    <row r="858" ht="12.0" customHeight="1">
+    <row r="858" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G858" s="14"/>
       <c r="H858" s="14"/>
       <c r="I858" s="14"/>
     </row>
-    <row r="859" ht="12.0" customHeight="1">
+    <row r="859" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G859" s="14"/>
       <c r="H859" s="14"/>
       <c r="I859" s="14"/>
     </row>
-    <row r="860" ht="12.0" customHeight="1">
+    <row r="860" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G860" s="14"/>
       <c r="H860" s="14"/>
       <c r="I860" s="14"/>
     </row>
-    <row r="861" ht="12.0" customHeight="1">
+    <row r="861" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G861" s="14"/>
       <c r="H861" s="14"/>
       <c r="I861" s="14"/>
     </row>
-    <row r="862" ht="12.0" customHeight="1">
+    <row r="862" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G862" s="14"/>
       <c r="H862" s="14"/>
       <c r="I862" s="14"/>
     </row>
-    <row r="863" ht="12.0" customHeight="1">
+    <row r="863" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G863" s="14"/>
       <c r="H863" s="14"/>
       <c r="I863" s="14"/>
     </row>
-    <row r="864" ht="12.0" customHeight="1">
+    <row r="864" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G864" s="14"/>
       <c r="H864" s="14"/>
       <c r="I864" s="14"/>
     </row>
-    <row r="865" ht="12.0" customHeight="1">
+    <row r="865" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G865" s="14"/>
       <c r="H865" s="14"/>
       <c r="I865" s="14"/>
     </row>
-    <row r="866" ht="12.0" customHeight="1">
+    <row r="866" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G866" s="14"/>
       <c r="H866" s="14"/>
       <c r="I866" s="14"/>
     </row>
-    <row r="867" ht="12.0" customHeight="1">
+    <row r="867" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G867" s="14"/>
       <c r="H867" s="14"/>
       <c r="I867" s="14"/>
     </row>
-    <row r="868" ht="12.0" customHeight="1">
+    <row r="868" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G868" s="14"/>
       <c r="H868" s="14"/>
       <c r="I868" s="14"/>
     </row>
-    <row r="869" ht="12.0" customHeight="1">
+    <row r="869" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G869" s="14"/>
       <c r="H869" s="14"/>
       <c r="I869" s="14"/>
     </row>
-    <row r="870" ht="12.0" customHeight="1">
+    <row r="870" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G870" s="14"/>
       <c r="H870" s="14"/>
       <c r="I870" s="14"/>
     </row>
-    <row r="871" ht="12.0" customHeight="1">
+    <row r="871" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G871" s="14"/>
       <c r="H871" s="14"/>
       <c r="I871" s="14"/>
     </row>
-    <row r="872" ht="12.0" customHeight="1">
+    <row r="872" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G872" s="14"/>
       <c r="H872" s="14"/>
       <c r="I872" s="14"/>
     </row>
-    <row r="873" ht="12.0" customHeight="1">
+    <row r="873" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G873" s="14"/>
       <c r="H873" s="14"/>
       <c r="I873" s="14"/>
     </row>
-    <row r="874" ht="12.0" customHeight="1">
+    <row r="874" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G874" s="14"/>
       <c r="H874" s="14"/>
       <c r="I874" s="14"/>
     </row>
-    <row r="875" ht="12.0" customHeight="1">
+    <row r="875" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G875" s="14"/>
       <c r="H875" s="14"/>
       <c r="I875" s="14"/>
     </row>
-    <row r="876" ht="12.0" customHeight="1">
+    <row r="876" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G876" s="14"/>
       <c r="H876" s="14"/>
       <c r="I876" s="14"/>
     </row>
-    <row r="877" ht="12.0" customHeight="1">
+    <row r="877" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G877" s="14"/>
       <c r="H877" s="14"/>
       <c r="I877" s="14"/>
     </row>
-    <row r="878" ht="12.0" customHeight="1">
+    <row r="878" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G878" s="14"/>
       <c r="H878" s="14"/>
       <c r="I878" s="14"/>
     </row>
-    <row r="879" ht="12.0" customHeight="1">
+    <row r="879" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G879" s="14"/>
       <c r="H879" s="14"/>
       <c r="I879" s="14"/>
     </row>
-    <row r="880" ht="12.0" customHeight="1">
+    <row r="880" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G880" s="14"/>
       <c r="H880" s="14"/>
       <c r="I880" s="14"/>
     </row>
-    <row r="881" ht="12.0" customHeight="1">
+    <row r="881" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G881" s="14"/>
       <c r="H881" s="14"/>
       <c r="I881" s="14"/>
     </row>
-    <row r="882" ht="12.0" customHeight="1">
+    <row r="882" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G882" s="14"/>
       <c r="H882" s="14"/>
       <c r="I882" s="14"/>
     </row>
-    <row r="883" ht="12.0" customHeight="1">
+    <row r="883" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G883" s="14"/>
       <c r="H883" s="14"/>
       <c r="I883" s="14"/>
     </row>
-    <row r="884" ht="12.0" customHeight="1">
+    <row r="884" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G884" s="14"/>
       <c r="H884" s="14"/>
       <c r="I884" s="14"/>
     </row>
-    <row r="885" ht="12.0" customHeight="1">
+    <row r="885" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G885" s="14"/>
       <c r="H885" s="14"/>
       <c r="I885" s="14"/>
     </row>
-    <row r="886" ht="12.0" customHeight="1">
+    <row r="886" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G886" s="14"/>
       <c r="H886" s="14"/>
       <c r="I886" s="14"/>
     </row>
-    <row r="887" ht="12.0" customHeight="1">
+    <row r="887" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G887" s="14"/>
       <c r="H887" s="14"/>
       <c r="I887" s="14"/>
     </row>
-    <row r="888" ht="12.0" customHeight="1">
+    <row r="888" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G888" s="14"/>
       <c r="H888" s="14"/>
       <c r="I888" s="14"/>
     </row>
-    <row r="889" ht="12.0" customHeight="1">
+    <row r="889" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G889" s="14"/>
       <c r="H889" s="14"/>
       <c r="I889" s="14"/>
     </row>
-    <row r="890" ht="12.0" customHeight="1">
+    <row r="890" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G890" s="14"/>
       <c r="H890" s="14"/>
       <c r="I890" s="14"/>
     </row>
-    <row r="891" ht="12.0" customHeight="1">
+    <row r="891" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G891" s="14"/>
       <c r="H891" s="14"/>
       <c r="I891" s="14"/>
     </row>
-    <row r="892" ht="12.0" customHeight="1">
+    <row r="892" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G892" s="14"/>
       <c r="H892" s="14"/>
       <c r="I892" s="14"/>
     </row>
-    <row r="893" ht="12.0" customHeight="1">
+    <row r="893" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G893" s="14"/>
       <c r="H893" s="14"/>
       <c r="I893" s="14"/>
     </row>
-    <row r="894" ht="12.0" customHeight="1">
+    <row r="894" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G894" s="14"/>
       <c r="H894" s="14"/>
       <c r="I894" s="14"/>
     </row>
-    <row r="895" ht="12.0" customHeight="1">
+    <row r="895" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G895" s="14"/>
       <c r="H895" s="14"/>
       <c r="I895" s="14"/>
     </row>
-    <row r="896" ht="12.0" customHeight="1">
+    <row r="896" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G896" s="14"/>
       <c r="H896" s="14"/>
       <c r="I896" s="14"/>
     </row>
-    <row r="897" ht="12.0" customHeight="1">
+    <row r="897" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G897" s="14"/>
       <c r="H897" s="14"/>
       <c r="I897" s="14"/>
     </row>
-    <row r="898" ht="12.0" customHeight="1">
+    <row r="898" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G898" s="14"/>
       <c r="H898" s="14"/>
       <c r="I898" s="14"/>
     </row>
-    <row r="899" ht="12.0" customHeight="1">
+    <row r="899" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G899" s="14"/>
       <c r="H899" s="14"/>
       <c r="I899" s="14"/>
     </row>
-    <row r="900" ht="12.0" customHeight="1">
+    <row r="900" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G900" s="14"/>
       <c r="H900" s="14"/>
       <c r="I900" s="14"/>
     </row>
-    <row r="901" ht="12.0" customHeight="1">
+    <row r="901" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G901" s="14"/>
       <c r="H901" s="14"/>
       <c r="I901" s="14"/>
     </row>
-    <row r="902" ht="12.0" customHeight="1">
+    <row r="902" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G902" s="14"/>
       <c r="H902" s="14"/>
       <c r="I902" s="14"/>
     </row>
-    <row r="903" ht="12.0" customHeight="1">
+    <row r="903" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G903" s="14"/>
       <c r="H903" s="14"/>
       <c r="I903" s="14"/>
     </row>
-    <row r="904" ht="12.0" customHeight="1">
+    <row r="904" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G904" s="14"/>
       <c r="H904" s="14"/>
       <c r="I904" s="14"/>
     </row>
-    <row r="905" ht="12.0" customHeight="1">
+    <row r="905" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G905" s="14"/>
       <c r="H905" s="14"/>
       <c r="I905" s="14"/>
     </row>
-    <row r="906" ht="12.0" customHeight="1">
+    <row r="906" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G906" s="14"/>
       <c r="H906" s="14"/>
       <c r="I906" s="14"/>
     </row>
-    <row r="907" ht="12.0" customHeight="1">
+    <row r="907" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G907" s="14"/>
       <c r="H907" s="14"/>
       <c r="I907" s="14"/>
     </row>
-    <row r="908" ht="12.0" customHeight="1">
+    <row r="908" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G908" s="14"/>
       <c r="H908" s="14"/>
       <c r="I908" s="14"/>
     </row>
-    <row r="909" ht="12.0" customHeight="1">
+    <row r="909" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G909" s="14"/>
       <c r="H909" s="14"/>
       <c r="I909" s="14"/>
     </row>
-    <row r="910" ht="12.0" customHeight="1">
+    <row r="910" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G910" s="14"/>
       <c r="H910" s="14"/>
       <c r="I910" s="14"/>
     </row>
-    <row r="911" ht="12.0" customHeight="1">
+    <row r="911" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G911" s="14"/>
       <c r="H911" s="14"/>
       <c r="I911" s="14"/>
     </row>
-    <row r="912" ht="12.0" customHeight="1">
+    <row r="912" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G912" s="14"/>
       <c r="H912" s="14"/>
       <c r="I912" s="14"/>
     </row>
-    <row r="913" ht="12.0" customHeight="1">
+    <row r="913" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G913" s="14"/>
       <c r="H913" s="14"/>
       <c r="I913" s="14"/>
     </row>
-    <row r="914" ht="12.0" customHeight="1">
+    <row r="914" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G914" s="14"/>
       <c r="H914" s="14"/>
       <c r="I914" s="14"/>
     </row>
-    <row r="915" ht="12.0" customHeight="1">
+    <row r="915" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G915" s="14"/>
       <c r="H915" s="14"/>
       <c r="I915" s="14"/>
     </row>
-    <row r="916" ht="12.0" customHeight="1">
+    <row r="916" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G916" s="14"/>
       <c r="H916" s="14"/>
       <c r="I916" s="14"/>
     </row>
-    <row r="917" ht="12.0" customHeight="1">
+    <row r="917" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G917" s="14"/>
       <c r="H917" s="14"/>
       <c r="I917" s="14"/>
     </row>
-    <row r="918" ht="12.0" customHeight="1">
+    <row r="918" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G918" s="14"/>
       <c r="H918" s="14"/>
       <c r="I918" s="14"/>
     </row>
-    <row r="919" ht="12.0" customHeight="1">
+    <row r="919" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G919" s="14"/>
       <c r="H919" s="14"/>
       <c r="I919" s="14"/>
     </row>
-    <row r="920" ht="12.0" customHeight="1">
+    <row r="920" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G920" s="14"/>
       <c r="H920" s="14"/>
       <c r="I920" s="14"/>
     </row>
-    <row r="921" ht="12.0" customHeight="1">
+    <row r="921" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G921" s="14"/>
       <c r="H921" s="14"/>
       <c r="I921" s="14"/>
     </row>
-    <row r="922" ht="12.0" customHeight="1">
+    <row r="922" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G922" s="14"/>
       <c r="H922" s="14"/>
       <c r="I922" s="14"/>
     </row>
-    <row r="923" ht="12.0" customHeight="1">
+    <row r="923" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G923" s="14"/>
       <c r="H923" s="14"/>
       <c r="I923" s="14"/>
     </row>
-    <row r="924" ht="12.0" customHeight="1">
+    <row r="924" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G924" s="14"/>
       <c r="H924" s="14"/>
       <c r="I924" s="14"/>
     </row>
-    <row r="925" ht="12.0" customHeight="1">
+    <row r="925" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G925" s="14"/>
       <c r="H925" s="14"/>
       <c r="I925" s="14"/>
     </row>
-    <row r="926" ht="12.0" customHeight="1">
+    <row r="926" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G926" s="14"/>
       <c r="H926" s="14"/>
       <c r="I926" s="14"/>
     </row>
-    <row r="927" ht="12.0" customHeight="1">
+    <row r="927" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G927" s="14"/>
       <c r="H927" s="14"/>
       <c r="I927" s="14"/>
     </row>
-    <row r="928" ht="12.0" customHeight="1">
+    <row r="928" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G928" s="14"/>
       <c r="H928" s="14"/>
       <c r="I928" s="14"/>
     </row>
-    <row r="929" ht="12.0" customHeight="1">
+    <row r="929" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G929" s="14"/>
       <c r="H929" s="14"/>
       <c r="I929" s="14"/>
     </row>
-    <row r="930" ht="12.0" customHeight="1">
+    <row r="930" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G930" s="14"/>
       <c r="H930" s="14"/>
       <c r="I930" s="14"/>
     </row>
-    <row r="931" ht="12.0" customHeight="1">
+    <row r="931" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G931" s="14"/>
       <c r="H931" s="14"/>
       <c r="I931" s="14"/>
     </row>
-    <row r="932" ht="12.0" customHeight="1">
+    <row r="932" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G932" s="14"/>
       <c r="H932" s="14"/>
       <c r="I932" s="14"/>
     </row>
-    <row r="933" ht="12.0" customHeight="1">
+    <row r="933" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G933" s="14"/>
       <c r="H933" s="14"/>
       <c r="I933" s="14"/>
     </row>
-    <row r="934" ht="12.0" customHeight="1">
+    <row r="934" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G934" s="14"/>
       <c r="H934" s="14"/>
       <c r="I934" s="14"/>
     </row>
-    <row r="935" ht="12.0" customHeight="1">
+    <row r="935" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G935" s="14"/>
       <c r="H935" s="14"/>
       <c r="I935" s="14"/>
     </row>
-    <row r="936" ht="12.0" customHeight="1">
+    <row r="936" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G936" s="14"/>
       <c r="H936" s="14"/>
       <c r="I936" s="14"/>
     </row>
-    <row r="937" ht="12.0" customHeight="1">
+    <row r="937" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G937" s="14"/>
       <c r="H937" s="14"/>
       <c r="I937" s="14"/>
     </row>
-    <row r="938" ht="12.0" customHeight="1">
+    <row r="938" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G938" s="14"/>
       <c r="H938" s="14"/>
       <c r="I938" s="14"/>
     </row>
-    <row r="939" ht="12.0" customHeight="1">
+    <row r="939" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G939" s="14"/>
       <c r="H939" s="14"/>
       <c r="I939" s="14"/>
     </row>
-    <row r="940" ht="12.0" customHeight="1">
+    <row r="940" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G940" s="14"/>
       <c r="H940" s="14"/>
       <c r="I940" s="14"/>
     </row>
-    <row r="941" ht="12.0" customHeight="1">
+    <row r="941" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G941" s="14"/>
       <c r="H941" s="14"/>
       <c r="I941" s="14"/>
     </row>
-    <row r="942" ht="12.0" customHeight="1">
+    <row r="942" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G942" s="14"/>
       <c r="H942" s="14"/>
       <c r="I942" s="14"/>
     </row>
-    <row r="943" ht="12.0" customHeight="1">
+    <row r="943" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G943" s="14"/>
       <c r="H943" s="14"/>
       <c r="I943" s="14"/>
     </row>
-    <row r="944" ht="12.0" customHeight="1">
+    <row r="944" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G944" s="14"/>
       <c r="H944" s="14"/>
       <c r="I944" s="14"/>
     </row>
-    <row r="945" ht="12.0" customHeight="1">
+    <row r="945" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G945" s="14"/>
       <c r="H945" s="14"/>
       <c r="I945" s="14"/>
     </row>
-    <row r="946" ht="12.0" customHeight="1">
+    <row r="946" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G946" s="14"/>
       <c r="H946" s="14"/>
       <c r="I946" s="14"/>
     </row>
-    <row r="947" ht="12.0" customHeight="1">
+    <row r="947" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G947" s="14"/>
       <c r="H947" s="14"/>
       <c r="I947" s="14"/>
     </row>
-    <row r="948" ht="12.0" customHeight="1">
+    <row r="948" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G948" s="14"/>
       <c r="H948" s="14"/>
       <c r="I948" s="14"/>
     </row>
-    <row r="949" ht="12.0" customHeight="1">
+    <row r="949" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G949" s="14"/>
       <c r="H949" s="14"/>
       <c r="I949" s="14"/>
     </row>
-    <row r="950" ht="12.0" customHeight="1">
+    <row r="950" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G950" s="14"/>
       <c r="H950" s="14"/>
       <c r="I950" s="14"/>
     </row>
-    <row r="951" ht="12.0" customHeight="1">
+    <row r="951" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G951" s="14"/>
       <c r="H951" s="14"/>
       <c r="I951" s="14"/>
     </row>
-    <row r="952" ht="12.0" customHeight="1">
+    <row r="952" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G952" s="14"/>
       <c r="H952" s="14"/>
       <c r="I952" s="14"/>
     </row>
-    <row r="953" ht="12.0" customHeight="1">
+    <row r="953" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G953" s="14"/>
       <c r="H953" s="14"/>
       <c r="I953" s="14"/>
     </row>
-    <row r="954" ht="12.0" customHeight="1">
+    <row r="954" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G954" s="14"/>
       <c r="H954" s="14"/>
       <c r="I954" s="14"/>
     </row>
-    <row r="955" ht="12.0" customHeight="1">
+    <row r="955" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G955" s="14"/>
       <c r="H955" s="14"/>
       <c r="I955" s="14"/>
     </row>
-    <row r="956" ht="12.0" customHeight="1">
+    <row r="956" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G956" s="14"/>
       <c r="H956" s="14"/>
       <c r="I956" s="14"/>
     </row>
-    <row r="957" ht="12.0" customHeight="1">
+    <row r="957" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G957" s="14"/>
       <c r="H957" s="14"/>
       <c r="I957" s="14"/>
     </row>
-    <row r="958" ht="12.0" customHeight="1">
+    <row r="958" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G958" s="14"/>
       <c r="H958" s="14"/>
       <c r="I958" s="14"/>
     </row>
-    <row r="959" ht="12.0" customHeight="1">
+    <row r="959" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G959" s="14"/>
       <c r="H959" s="14"/>
       <c r="I959" s="14"/>
     </row>
-    <row r="960" ht="12.0" customHeight="1">
+    <row r="960" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G960" s="14"/>
       <c r="H960" s="14"/>
       <c r="I960" s="14"/>
     </row>
-    <row r="961" ht="12.0" customHeight="1">
+    <row r="961" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G961" s="14"/>
       <c r="H961" s="14"/>
       <c r="I961" s="14"/>
     </row>
-    <row r="962" ht="12.0" customHeight="1">
+    <row r="962" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G962" s="14"/>
       <c r="H962" s="14"/>
       <c r="I962" s="14"/>
     </row>
-    <row r="963" ht="12.0" customHeight="1">
+    <row r="963" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G963" s="14"/>
       <c r="H963" s="14"/>
       <c r="I963" s="14"/>
     </row>
-    <row r="964" ht="12.0" customHeight="1">
+    <row r="964" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G964" s="14"/>
       <c r="H964" s="14"/>
       <c r="I964" s="14"/>
     </row>
-    <row r="965" ht="12.0" customHeight="1">
+    <row r="965" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G965" s="14"/>
       <c r="H965" s="14"/>
       <c r="I965" s="14"/>
     </row>
-    <row r="966" ht="12.0" customHeight="1">
+    <row r="966" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G966" s="14"/>
       <c r="H966" s="14"/>
       <c r="I966" s="14"/>
     </row>
-    <row r="967" ht="12.0" customHeight="1">
+    <row r="967" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G967" s="14"/>
       <c r="H967" s="14"/>
       <c r="I967" s="14"/>
     </row>
-    <row r="968" ht="12.0" customHeight="1">
+    <row r="968" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G968" s="14"/>
       <c r="H968" s="14"/>
       <c r="I968" s="14"/>
     </row>
-    <row r="969" ht="12.0" customHeight="1">
+    <row r="969" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G969" s="14"/>
       <c r="H969" s="14"/>
       <c r="I969" s="14"/>
     </row>
-    <row r="970" ht="12.0" customHeight="1">
+    <row r="970" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G970" s="14"/>
       <c r="H970" s="14"/>
       <c r="I970" s="14"/>
     </row>
-    <row r="971" ht="12.0" customHeight="1">
+    <row r="971" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G971" s="14"/>
       <c r="H971" s="14"/>
       <c r="I971" s="14"/>
     </row>
-    <row r="972" ht="12.0" customHeight="1">
+    <row r="972" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G972" s="14"/>
       <c r="H972" s="14"/>
       <c r="I972" s="14"/>
     </row>
-    <row r="973" ht="12.0" customHeight="1">
+    <row r="973" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G973" s="14"/>
       <c r="H973" s="14"/>
       <c r="I973" s="14"/>
     </row>
-    <row r="974" ht="12.0" customHeight="1">
+    <row r="974" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G974" s="14"/>
       <c r="H974" s="14"/>
       <c r="I974" s="14"/>
     </row>
-    <row r="975" ht="12.0" customHeight="1">
+    <row r="975" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G975" s="14"/>
       <c r="H975" s="14"/>
       <c r="I975" s="14"/>
     </row>
-    <row r="976" ht="12.0" customHeight="1">
+    <row r="976" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G976" s="14"/>
       <c r="H976" s="14"/>
       <c r="I976" s="14"/>
     </row>
-    <row r="977" ht="12.0" customHeight="1">
+    <row r="977" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G977" s="14"/>
       <c r="H977" s="14"/>
       <c r="I977" s="14"/>
     </row>
-    <row r="978" ht="12.0" customHeight="1">
+    <row r="978" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G978" s="14"/>
       <c r="H978" s="14"/>
       <c r="I978" s="14"/>
     </row>
-    <row r="979" ht="12.0" customHeight="1">
+    <row r="979" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G979" s="14"/>
       <c r="H979" s="14"/>
       <c r="I979" s="14"/>
     </row>
-    <row r="980" ht="12.0" customHeight="1">
+    <row r="980" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G980" s="14"/>
       <c r="H980" s="14"/>
       <c r="I980" s="14"/>
     </row>
-    <row r="981" ht="12.0" customHeight="1">
+    <row r="981" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G981" s="14"/>
       <c r="H981" s="14"/>
       <c r="I981" s="14"/>
     </row>
-    <row r="982" ht="12.0" customHeight="1">
+    <row r="982" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G982" s="14"/>
       <c r="H982" s="14"/>
       <c r="I982" s="14"/>
     </row>
-    <row r="983" ht="12.0" customHeight="1">
+    <row r="983" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G983" s="14"/>
       <c r="H983" s="14"/>
       <c r="I983" s="14"/>
     </row>
-    <row r="984" ht="12.0" customHeight="1">
+    <row r="984" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G984" s="14"/>
       <c r="H984" s="14"/>
       <c r="I984" s="14"/>
     </row>
-    <row r="985" ht="12.0" customHeight="1">
+    <row r="985" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G985" s="14"/>
       <c r="H985" s="14"/>
       <c r="I985" s="14"/>
     </row>
-    <row r="986" ht="12.0" customHeight="1">
+    <row r="986" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G986" s="14"/>
       <c r="H986" s="14"/>
       <c r="I986" s="14"/>
     </row>
-    <row r="987" ht="12.0" customHeight="1">
+    <row r="987" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G987" s="14"/>
       <c r="H987" s="14"/>
       <c r="I987" s="14"/>
     </row>
-    <row r="988" ht="12.0" customHeight="1">
+    <row r="988" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G988" s="14"/>
       <c r="H988" s="14"/>
       <c r="I988" s="14"/>
     </row>
-    <row r="989" ht="12.0" customHeight="1">
+    <row r="989" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G989" s="14"/>
       <c r="H989" s="14"/>
       <c r="I989" s="14"/>
     </row>
-    <row r="990" ht="12.0" customHeight="1">
+    <row r="990" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G990" s="14"/>
       <c r="H990" s="14"/>
       <c r="I990" s="14"/>
     </row>
-    <row r="991" ht="12.0" customHeight="1">
+    <row r="991" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G991" s="14"/>
       <c r="H991" s="14"/>
       <c r="I991" s="14"/>
     </row>
-    <row r="992" ht="12.0" customHeight="1">
+    <row r="992" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G992" s="14"/>
       <c r="H992" s="14"/>
       <c r="I992" s="14"/>
     </row>
-    <row r="993" ht="12.0" customHeight="1">
+    <row r="993" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G993" s="14"/>
       <c r="H993" s="14"/>
       <c r="I993" s="14"/>
     </row>
-    <row r="994" ht="12.0" customHeight="1">
+    <row r="994" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G994" s="14"/>
       <c r="H994" s="14"/>
       <c r="I994" s="14"/>
     </row>
-    <row r="995" ht="12.0" customHeight="1">
+    <row r="995" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G995" s="14"/>
       <c r="H995" s="14"/>
       <c r="I995" s="14"/>
     </row>
-    <row r="996" ht="12.0" customHeight="1">
+    <row r="996" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G996" s="14"/>
       <c r="H996" s="14"/>
       <c r="I996" s="14"/>
     </row>
-    <row r="997" ht="12.0" customHeight="1">
+    <row r="997" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G997" s="14"/>
       <c r="H997" s="14"/>
       <c r="I997" s="14"/>
     </row>
-    <row r="998" ht="12.0" customHeight="1">
+    <row r="998" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G998" s="14"/>
       <c r="H998" s="14"/>
       <c r="I998" s="14"/>
     </row>
-    <row r="999" ht="12.0" customHeight="1">
+    <row r="999" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G999" s="14"/>
       <c r="H999" s="14"/>
       <c r="I999" s="14"/>
     </row>
-    <row r="1000" ht="12.0" customHeight="1">
+    <row r="1000" spans="7:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G1000" s="14"/>
       <c r="H1000" s="14"/>
       <c r="I1000" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>#REF!&lt;&gt;IR64990</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>#REF!&lt;&gt;IR64990</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>#REF!&lt;&gt;IR64990</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>#REF!&lt;&gt;IR64990</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>#REF!&lt;&gt;IR64990</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6408,13 +6520,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>#REF!&lt;&gt;IR64990</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>